--- a/Coffee.xlsx
+++ b/Coffee.xlsx
@@ -15,12 +15,1445 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
+    <t>@sharkhammer99 mas é bom mesmo, tipo na vida real meus amigos acham que eu sou mó de boa, mas eu só sou um café mano</t>
+  </si>
+  <si>
+    <t>@diangelsnico ótimo post, sai com depressão</t>
+  </si>
+  <si>
+    <t>@sensemarcia @walking_coffee vem rir cmg</t>
+  </si>
+  <si>
+    <t>rt @claraafurini: -oi gata manda foto do yoni 😈
+-tá 😳 https://t.co/mlxfmb5zv7</t>
+  </si>
+  <si>
+    <t>como tá o yoni de vcs https://t.co/4vrj2xyywh</t>
+  </si>
+  <si>
+    <t>@walking_coffee amei</t>
+  </si>
+  <si>
+    <t>não confio em quem não gosta de coffee, dimple, pied piper, whalien 52, 24/7 heaven, converse high, miss right, autumn leaves e 2!3!</t>
+  </si>
+  <si>
+    <t>@coffee___hunter dificil</t>
+  </si>
+  <si>
+    <t>@denny__boo @coffee___hunter ótimo gosto cara</t>
+  </si>
+  <si>
+    <t>rt @coffee_lalisa: falta quantos anos pra vcs fazerem 18 ???</t>
+  </si>
+  <si>
+    <t>@yukiuchx ai sim kkk</t>
+  </si>
+  <si>
+    <t>@hash_coffee abacho.</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 ata, achei que tinha sido você</t>
+  </si>
+  <si>
+    <t>coffee é perfeita vei</t>
+  </si>
+  <si>
+    <t>e a padaria que abriu aqui do lado da ufu que é padaria e distribuidora de bebidas e chama coffee breja</t>
+  </si>
+  <si>
+    <t>coisas inúteis sobre mim
+altura — 1,85
+idade — 22
+tamanho do pé — 41-42
+signo — piterodactlo 
+tatuagens — 1
+piercing — 0
+cor fav — preto 
+série fav — peaky blinders 
+animal fav — gato
+comida fav ー moussaka 
+bebida fav — bourbom coffee 
+jogo fav — bisca https://t.co/jerlvkbiee</t>
+  </si>
+  <si>
+    <t>@lana_juno tudo bem vamos marca então 👉👈🥺</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 um slime fofinho</t>
+  </si>
+  <si>
+    <t>rt @vamonelson: fica aí a dica pros viajantes do tempo</t>
+  </si>
+  <si>
+    <t>@fleursbear bloco dado https://t.co/mpppigcezi</t>
+  </si>
+  <si>
+    <t>@adriandduwu nada
+/cry</t>
+  </si>
+  <si>
+    <t>@rgrpedro31 ai, ele só anda com os mais velhos :(
+ahsuhsush</t>
+  </si>
+  <si>
+    <t>@coffee___hunter @sharkhammer99 ele ainda será convertido!</t>
+  </si>
+  <si>
+    <t>como diria a filósofa rihanna.
+mete um homem.</t>
+  </si>
+  <si>
+    <t>krl dunada td mundo fica chato mp</t>
+  </si>
+  <si>
+    <t>@coffee___hunter sim ,eu conheço ele antes da fama</t>
+  </si>
+  <si>
+    <t>✵ᑭeᗪiᗪo✵: combo pequeno príncipe
+»⋆ꭰꭼ: três pontinhos
+»⋆ꮲꭺꮢꭺ: @kittenscor  
+"pra um meu gravidinho preferido ^w^" https://t.co/hboxyrru5r</t>
+  </si>
+  <si>
+    <t>@salonlinebrasil já tô esperando agr</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu falei o meu</t>
+  </si>
+  <si>
+    <t>rt @icretinoreal: eu com raiva https://t.co/dqknuefegq</t>
+  </si>
+  <si>
+    <t>meu deus o problema que o designer tem em usar palavras em português
+a pessoa no podcast falando sobre um livro e dizendo "realmente esse não é um livro de coffee table"
+mano mesa de cafeeeee
+q flow cara fala fluxo</t>
+  </si>
+  <si>
+    <t>fazer aquele coffee para não parar as atividades.</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @brunode22555578 @farialimaelevat bicho, se os laudos eram falsos e a agência não foi atrás, ou cobraram propina ou não fizeram o trabalho de ir a campo fiscalizar. tão simples quanto isso.</t>
+  </si>
+  <si>
+    <t>rt @lcmbarros: lcmb: concordo com ele
+bloomberg 14/9
+a posição da equipe do ministro  paulo guedes, de simplesmente voltar ao teto de gasto…</t>
+  </si>
+  <si>
+    <t>@toxicojuan_ @dekdsimp @adriandduwu ahora entendí jasuahdjsjd</t>
+  </si>
+  <si>
+    <t>@coffee_jeonjk @coffee_lalisa obrigada ❤️</t>
+  </si>
+  <si>
+    <t>rt @tristheus: é impossivel ser contra a violencia no futebol quando o seu time quer contratar o thiago neves</t>
+  </si>
+  <si>
+    <t>@sh0ckgirl ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/guwoas92fc</t>
+  </si>
+  <si>
+    <t>@neman_coffee @eyshlav tá mais pra ser o tigrão daquela dlç</t>
+  </si>
+  <si>
+    <t>♡ combo vilões da disney (mama gothel) ♡
+(pode alterar o presente) https://t.co/ltlqxa692z</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 teu cu
+kkkkkk</t>
+  </si>
+  <si>
+    <t>rt @remolucius: alguém pra me mandar o combo hades e perséfone da júpiter coffee shop? 👉👈</t>
+  </si>
+  <si>
+    <t>@adriandduwu @coffee_ahh amigo fui al psicologo</t>
+  </si>
+  <si>
+    <t>rt @biancaisbean: só queria viver num daqueles videos de rainy night coffee shop with jazz :(</t>
+  </si>
+  <si>
+    <t>@eyshlav @kayky89219987 e a outra discute com criança</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu li errado kkkkk eu li nome o meu é bem grande então só vou pegar meu último sobrenome oriebir</t>
+  </si>
+  <si>
+    <t>rt @phmphmph: não é possível que alguém ainda consiga ouvir e gostar da música death bed (coffee for your head)</t>
+  </si>
+  <si>
+    <t>é oficial: hoje, me torno parte de um time de café especialidade em dublin. shoe lane coffee é o primeiro lugar que me dá a oportunidade de trabalhar com o que eu amo!!!</t>
+  </si>
+  <si>
+    <t>@kingfalcom tu n entendeu e uma referência</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 você nunca me vencerá, em nome do empano, eu declaro que você pegue o croquete e enfia no cu do meu primo junto com o 3ds
+'-'</t>
+  </si>
+  <si>
+    <t>@prinbruce @louvplace não precisa</t>
+  </si>
+  <si>
+    <t>môge....! [_]) #coffee ;-) https://t.co/3rjjjwgxip</t>
+  </si>
+  <si>
+    <t>rt @doutormaravilha: a sessão clínica da infectologia na hora do coffee-break 
+‘meu paciente da úlcera de buruli...’ https://t.co/mlpqfit9…</t>
+  </si>
+  <si>
+    <t>rt @fleuristie: ㅤ
+ㅤㅤ♥︎ . . .  hey! sabiam que meu grupo tem um combo na meyer coffee? ajuda bastante a divulgar a gente mas ultimamente as…</t>
+  </si>
+  <si>
+    <t>rt @danifialhoo: queria receber uma mensagem fofa, tipo: tenho uma vaga de emprego pra você</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @brunode22555578 @farialimaelevat existe uma agência de mineração no brasil que tinha que pegar a análise e conferir. é função dela inclusive.
+em tempo: enquanto era estatal, também foi responsável por vários acidentes tb, inclusive a barragem mal feita de mariana é daquela época.</t>
+  </si>
+  <si>
+    <t>@coffee___hunter nem cara ,corta pra fazer croquete</t>
+  </si>
+  <si>
+    <t>jurei que meu notebook ia explodir</t>
+  </si>
+  <si>
+    <t>@luizxpotts "a música mais triste do ano" ela é linda de tão triste 
+"if the world was ending" "coffee"  essas duas vc deve conhecer . 
+boa sorte com a depressão amg 🙏 kkkk</t>
+  </si>
+  <si>
+    <t>rt @yodakjkj: os cara usa crocs https://t.co/tncmydzyy1</t>
+  </si>
+  <si>
+    <t>@brunapalma_ @virogowski1 @ocpiress @laurazlac 45 quando alguma tinha muito trabalho e precisava subir... depois tinha o coffee das 15h né, não podemos esquecer...</t>
+  </si>
+  <si>
+    <t>rt @mrspotter_13: tão querendo implantar uma crise que não existe no galo</t>
+  </si>
+  <si>
+    <t>que o café permaneça em vocês! bem vindos ao lado cafeinado da força! 
+.
+postado por nossa czlover @mariana_cunhaw junto de @guiferchers e @dougsoares15 - you can sleep when you're dead! drink coffee and work hard! ☕💪 https://t.co/0fkulbiayj</t>
+  </si>
+  <si>
+    <t>escuta coffee = boiola</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 anem kkkk</t>
+  </si>
+  <si>
+    <t>bebendo meu coffee e vendo as pessoas entrando num inferno existencialista</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa estou fazendo hoje</t>
+  </si>
+  <si>
+    <t>vou tentar fazer aquele dalgona coffee se der certo mando foros</t>
+  </si>
+  <si>
+    <t>já q eu acordei msm, vou levantar e tomar um coffee</t>
+  </si>
+  <si>
+    <t>@lcmbarros problema agora é inflação. não tem demanda pra tesouro selic!</t>
+  </si>
+  <si>
+    <t>a contagem regressiva começou...
+.
+#eusousupergeek
+.
+#geek #nerd #lojageek #presentescriativos #lojasupergeek #eusousupergeek #piresdorio #estilogeek #geekbrasil #mundogeek #bomdia #cafe #coffee #queaforcaestejacomvoce #boracomeçar #contagemregressica #inauguracao #novaloja https://t.co/12as6mcc6r</t>
+  </si>
+  <si>
+    <t>e triste pq não e todo mundo que vai querer mudar esse pensamento e "acorda" a voz da razão.</t>
+  </si>
+  <si>
+    <t>@gbs_silvaa vem na mão</t>
+  </si>
+  <si>
+    <t>não sei o que a vida quer de mim, durmo tarde acordo ruim, durmo cedo acordo acabado.</t>
+  </si>
+  <si>
+    <t>rt @wolpes1: morrendo de vergonha porém toma ai
+drown - bring me the horizon
+(versão acustica e desafinada) irra https://t.co/ewusumew4g</t>
+  </si>
+  <si>
+    <t>@the__coffee @leotochahumana era pra ter ficado assim https://t.co/m5ff1piftr</t>
+  </si>
+  <si>
+    <t>coffee dates são tão bons :)))</t>
+  </si>
+  <si>
+    <t>@exilebabs vc assistiu coffee and vanilla? tem na netflix daqui e resolvi perguntar se vale a pena</t>
+  </si>
+  <si>
+    <t>serah q eu sou expulso da escola se eu mandar td mundo a merda? tava qrendo fazer um bgl foda pra qnd eu vazar de la</t>
+  </si>
+  <si>
+    <t>@coffee___hunter n esperava q ficasse legal mas acabou ficando</t>
+  </si>
+  <si>
+    <t>@carriet_ e uma droga ser assim ;--;</t>
+  </si>
+  <si>
+    <t>@bich1nha n tenho favorita mas to viciada em the coffee song(frank sinatra)</t>
+  </si>
+  <si>
+    <t>vou ouvir coffee☕️🍪</t>
+  </si>
+  <si>
+    <t>eu quero muito assistir. coffee prince tem um lugarzinho especial no meu coração de dorameira. https://t.co/nkze7eftrv</t>
+  </si>
+  <si>
+    <t>como eu queria tá... https://t.co/8rpxvvniqf</t>
+  </si>
+  <si>
+    <t>curioso que eu fiquei com preconceito com a expressão "coffee break" antes mesmo de saber o que era</t>
+  </si>
+  <si>
+    <t>@coffee_off_ tu nem me ligou</t>
+  </si>
+  <si>
+    <t>lithium = obra de arte</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 acho que eu to mais burro</t>
+  </si>
+  <si>
+    <t>@neman_coffee @eyshlav é por que eu comi feijão tropeiro 😔👍</t>
+  </si>
+  <si>
+    <t>@taeseokloveu parabéns 👏🎉♥️</t>
+  </si>
+  <si>
+    <t>precisamos mais café sirkel☕️☕️☕️ #cafe #coffee #sirkel #cafesirkel #sirkelcoffee #serranegra em serra negra, sao paulo, brazil https://t.co/o3lj57halg</t>
+  </si>
+  <si>
+    <t>rt @moondded: a record acusando a globo de perseguição religiosa por causa da matéria sobre a corrupção na universal kkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@coffee___hunter @sharkhammer99 ele sempre são cabeça dura mais eles mudam</t>
+  </si>
+  <si>
+    <t>a sessão clínica da infectologia na hora do coffee-break 
+‘meu paciente da úlcera de buruli...’ https://t.co/mlpqfit9sx</t>
+  </si>
+  <si>
+    <t>@carriet_ comigo na maioria das vezes e cara carente que confunde as coisas, muito triste</t>
+  </si>
+  <si>
+    <t>📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
+e para comemorar o dia do cliente ...
+mimos, brindes, coffee break, coquetel, novidades... 
+✖️ 📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/knkv0ub0hx</t>
+  </si>
+  <si>
+    <t>saudades de treinamento presencial com coffee break</t>
+  </si>
+  <si>
+    <t>@coffee___hunter o seu</t>
+  </si>
+  <si>
+    <t>📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
+e para comemorar o dia do cliente ...
+mimos, brindes, coffee break, coquetel, novidades... 
+✖️ 📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/fvxdae5phq</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu gosto mt de todos e ñ consigo escolher
+nintendo tem clássicos incríveis 
+xbox tem serviços ótimos e exclusivos bons
+a sony tem os melhores exclusivos dos três 
+pc tem os graphicos mais pika de todos
+e eu sofro por ser pobre</t>
+  </si>
+  <si>
+    <t>@coffee_strange @spacebooksbr boraa</t>
+  </si>
+  <si>
+    <t>rt @gllimbow: essa conta vai seguir o tt inteiro menos eu</t>
+  </si>
+  <si>
+    <t>@coffee___hunter kkkkkkkkkkk em nome do croquete vou esmagar sua cara</t>
+  </si>
+  <si>
+    <t>@bizz_coffee não sei lidar com pessoas legais e interessantes falando cmgo, eu bugo</t>
+  </si>
+  <si>
+    <t>rt @opmawa: eu gosto tanto dessa pessoa! é mt difícil lidar com a dor de ser magoada, seja por um amigo ou um crush. é mt difícil quando es…</t>
+  </si>
+  <si>
+    <t>@softmilaaa negro.</t>
+  </si>
+  <si>
+    <t>@farialimaelevat palmeiras</t>
+  </si>
+  <si>
+    <t>@coffee___hunter sim kkkkkk</t>
+  </si>
+  <si>
+    <t>@l_l4dy nunca me chama pra jogar</t>
+  </si>
+  <si>
+    <t>ㅤ
+ㅤㅤ♥︎ . . .  hey! sabiam que meu grupo tem um combo na meyer coffee? ajuda bastante a divulgar a gente mas ultimamente as pessoas não tem pedido... então se vocês puderem pedir o combo orbit eu ia ficar bem feliz! os atendentes de lá são incríveis, vocês vão amar 🥺</t>
+  </si>
+  <si>
+    <t>@lcmbarros vivas ao estado 🚂 puxando a economia ! 👏🏼👏🏼👏🏼👏🏼</t>
+  </si>
+  <si>
+    <t>rt @vanteksjnie: namjin au¡! ❬ the same coffee
+onde kim namjoon,um estudante de direito que sempre ia a mesma cafeteria,pedia o mesmo café…</t>
+  </si>
+  <si>
+    <t>o meus coffee breaks do trabalho be like https://t.co/u6uxfcrejg</t>
+  </si>
+  <si>
+    <t>@coffee_off_ meu cllr ta descarregando dps nois faz ta</t>
+  </si>
+  <si>
+    <t>adicionei "coffee and vanilla" em minha grade https://t.co/ivetywh7ak #bancodeseries</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 ih ala falou o carinha do croquete</t>
+  </si>
+  <si>
+    <t>...não querer let's get some coffee. papitu não quer ser presidente de ninguem e de nada. 
+-pois é.
+-papitu...eles não param. ô meu deus. tsc...se papitu não quer ser alienado como eles, temos que respeitsr isso.
+-tambem acho.
+-obrigado papitu.</t>
+  </si>
+  <si>
+    <t>coisas inúteis sobre mim
+altura — 1,58
+idade — 17
+tamanho do pé — 37/38 
+signo — virgem
+tatuagens — 0
+piercing — 0 
+cor fav — preto e azul 
+série fav — sherlock
+animal fav — gato 
+comida fav ー parmegiana e sushi 
+bebida fav — suquinho de laranja hum
+jogo fav — sla mano my coffee https://t.co/hbjlfwtcvx</t>
+  </si>
+  <si>
+    <t>contratação do thiago neves é realmente caso de assassinato no atlético. o responsável deve ser crucificado naquela cruz da praça do papa</t>
+  </si>
+  <si>
+    <t>bom dia! #coffee #coffeelover #coffeetime #bomdia #goodmorning https://t.co/qq3se8geeq</t>
+  </si>
+  <si>
+    <t>rt @besta_mor: meu deus o problema que o designer tem em usar palavras em português
+a pessoa no podcast falando sobre um livro e dizendo "r…</t>
+  </si>
+  <si>
+    <t>@bizz_coffee eu ignoro os flerte qnd n to afim kkkk</t>
+  </si>
+  <si>
+    <t>@lndlanamassara ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/hdou9hy9ik</t>
+  </si>
+  <si>
+    <t>@coffee___hunter o meu também</t>
+  </si>
+  <si>
+    <t>rt @robbe_n: segundo dia no uruguai, fui em um coffee break de maconha, troquei altas ideias com o "cebola", e ganhei umas bud, 💪🏻💪🏻💪🏻.</t>
+  </si>
+  <si>
+    <t>@coffee___hunter escolhe o meu não desse fdp</t>
+  </si>
+  <si>
+    <t>rt @lmalfoy: meu omega me mima, vou virar um alfa manhoso</t>
+  </si>
+  <si>
+    <t>só queria viver num daqueles videos de rainy night coffee shop with jazz :(</t>
+  </si>
+  <si>
+    <t>meu deus, to me sentindo com 15 anos dnv, não consigo parar d olhar esses vídeos do aidan super teengirl apaixonadinha 
+alguém me ajuda pelamorddeus https://t.co/4yjm1irrkg</t>
+  </si>
+  <si>
+    <t>começar o dia tomando café e ouvindo coffee é tudo de bom</t>
+  </si>
+  <si>
+    <t>⌕ coffee and vanilla (2019)
+      ★★☆☆☆
+－ só assisti pelo dori sakaruda; romance e enredo foi mal elaborado; o ship que não se concretizou em good morning call se encontra aqui; https://t.co/equjx9yva7</t>
+  </si>
+  <si>
+    <t>rt @enderli_juh: se eu soubesse que esse ano não ia ter coffee break, eu tinha comido mais</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 para de rir da minha burrice</t>
+  </si>
+  <si>
+    <t>bom dia quase tarde, como estão? em minha cidade amanheceu um pouco fria então está bom para tomar um cafezinho quentinho ☕❤ https://t.co/qdsuapp5vx</t>
+  </si>
+  <si>
+    <t>@larissafariam7 eu queria um i9 9900k coffee lake e uma rtx 2080 mas uma foto de uma bela raba dm pode me animar!</t>
+  </si>
+  <si>
+    <t>cara, comigo eu pego panfeto na rua dos cara que fica entregando pra não deixa eles magoado.
+e não vou banca a hipócrita e dizer que sempre fui assim, pois não depois de tanto errar eu começava a refletir (coisa que todos deviam fazer) sobre minhas ações.</t>
+  </si>
+  <si>
+    <t>rt @carolfigueiredc: eu fui na convenção do pcdob esse domingo e tinha gente la que foi so pq tinha coffee break e era a unica comida q ele…</t>
+  </si>
+  <si>
+    <t>@ivylewisrp ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/mkasjauxlq</t>
+  </si>
+  <si>
+    <t>provei the coffee hoje! achei bom, mas nunca voltaria la! nao compensou pra mim sair da minha casinha pra comprar mais uma vez! valeu a tentativa, mas achei meio agoado e fraco</t>
+  </si>
+  <si>
+    <t>rt @dracomalfoym: melhor casal de hp e vcs não estão prontos pra essa conversa https://t.co/m9ujfnikmo</t>
+  </si>
+  <si>
+    <t>a regra de três trouxe amigos também, mas não precisava</t>
+  </si>
+  <si>
+    <t>rt @sweetcofferp: a sweet coffee está com uma novidade: vem aí nosso primeiro festival musical! ele acontecerá nos dias 25 e 26 de setembro…</t>
+  </si>
+  <si>
+    <t>@coffee___hunter uhum</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa já fiz faz 15 anos hahahahahaha</t>
+  </si>
+  <si>
+    <t>finalmente estou desenhando de volta</t>
+  </si>
+  <si>
+    <t>a outra coisa se vc usa desculpa de algum distúrbio mental como depressão etc pra ser um total escroto desejo meus mais sinceros vai toma no cu. 
+vai procura um psicólogo e se trata ninguém e obrigado aguentar vc sendo um pau no c* com os outros.</t>
+  </si>
+  <si>
+    <t>@coffee_off_ @amandan79313929 vocês namoram ?</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 ata kkkk
+pô, ficou aceitável o nome da mágica kk
+melhor que o meuಠ_ಠ</t>
+  </si>
+  <si>
+    <t>@eyshlav @kayky89219987 poh, apenas um "fodase" é bom as vezes uai</t>
+  </si>
+  <si>
+    <t>@coffee___hunter mentiroso ,fizeram uma lavagem cerebral em vc cara</t>
+  </si>
+  <si>
+    <t>#bomdia
+#minasgerais
+#coffee
+#cafemineiro em santa rita do sapucaí https://t.co/xecjjthhlj</t>
+  </si>
+  <si>
+    <t>rt @pjiminportugal: a cara do jimin quando ouviu que um coffee truck custa 1 bilhão de wons!
+tão fofo ahah 😂
+o camião em questão, foi o q…</t>
+  </si>
+  <si>
+    <t>se tem uma coisa que eu sou apaixonada é café! amo aquela pausa no fim da tarde para um cafezinho, admirando a paisagem 🌊🌞🏡 
+quem mais tb é assim? ama café como eu! diz pra mim 👇🏻☕️
+#frases #danifontenelle #café #coffee #cafeteria #apaixonadaporcafe #apaixonadaporcafé https://t.co/6ktpdgzros</t>
+  </si>
+  <si>
+    <t>@prinbruce como assim?</t>
+  </si>
+  <si>
+    <t>falta quantos anos pra vcs fazerem 18 ???</t>
+  </si>
+  <si>
+    <t>@dizz13y ficou legal</t>
+  </si>
+  <si>
+    <t>quase 4h da manhã e ligada no 220 the coffee não conte cmg pra nada</t>
+  </si>
+  <si>
+    <t>@amandan79313929 @coffee_off_ ah tá</t>
+  </si>
+  <si>
+    <t>porque eu estou tão improdutivo</t>
+  </si>
+  <si>
+    <t>aprendi a fazer um iced coffee incrível e não paro mais de tomar</t>
+  </si>
+  <si>
+    <t>rt @luizabiasutti: essa aula grita por um coffee break</t>
+  </si>
+  <si>
+    <t>oii gente, sou novo nesse mundo de booktt hehe. sou um adolescente nada normal. gosto de ler, assistir série e filmes, viciado em café para manter o ritmo (mas tbm eu amo coffee). afim de novos amgs e interagir bastante, surtar muito com meus personagens e chorar junto tbm 🥺👉🏾👈🏾</t>
+  </si>
+  <si>
+    <t>@b1tchs0n todos tem suas vantagens</t>
+  </si>
+  <si>
+    <t>quem precisa de jornal se tem minha sala</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 foi pego</t>
+  </si>
+  <si>
+    <t>@fernandocluiz virou piada as denúncias da lavajato</t>
+  </si>
+  <si>
+    <t>129º curso de barista de brasília
+• sábado, 26/0920, das 9h às 17h (teoria e prática)
+: https://t.co/7tylbgr7ry 
+info: +55.61.999717349 - antonello@monardo.com.br
+#monardooficial #monardo #café #caffé #coffee #coffeelover #coffeelovers #italia #cappuccino #barista #cursobarista https://t.co/mezx9isrqa</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @farialimaelevat só estou dizendo que a empresa não é totalmente privada como insinuam e o setor tem uma regulamentação muito forte, quanto aos acidentes houve negligência/corrupção nas perícias por parte de agentes públicos.</t>
+  </si>
+  <si>
+    <t>@salimmattarbr @leandroruschel o senhor acha justa a isenção fiscal a suas empresas de locação de veículos 🚗?</t>
+  </si>
+  <si>
+    <t>@bizz_coffee não seria melhor um cara que alem de te dar atenção jogasse com você ?</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 e sim é possível eu ficar mais burro</t>
+  </si>
+  <si>
+    <t>@flamexllsxz mds pq n responde o mlk no msm dia kakakakak tadin</t>
+  </si>
+  <si>
+    <t>bom dia vou fazer vietnamese coffee</t>
+  </si>
+  <si>
+    <t>@tnndark saudades dos congressos academicos da unifesp com coffee break kkkk</t>
+  </si>
+  <si>
+    <t>@vaitamara tenta fazer um dalgona coffee, é bem de boinas e combina com esse calor infernal</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 escolhe o certo por favor</t>
+  </si>
+  <si>
+    <t>@coffee___hunter calado babaca do empanado</t>
+  </si>
+  <si>
+    <t>rt @johnctsep: se o nct 2020 for verdade eu só quero um a cup of coffee parte 3 senhor será que é pedir demais</t>
+  </si>
+  <si>
+    <t>@tallipes @tododiagostosa @nanda_disus o mlk é porra de um rato</t>
+  </si>
+  <si>
+    <t>@lana_juno só por duvida vcs poderiam amanhã? ou muito em cima da hora</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 ótimo, nem queria você mesmo no meu time, hmph!</t>
+  </si>
+  <si>
+    <t>ow eu mandei uma receita de iced coffee delícia p joão, se algm quiser saber me chama hehe @joaolucasmnk</t>
+  </si>
+  <si>
+    <t>⯯ redução preço / price reduced ⯯
+para venda restaurante/café vila nova de gaia
+https://t.co/dhn9qtcgpx
+sale rest./coffee shop vila nova de gaia
+https://t.co/jejsy9e0um https://t.co/ljhxcphwdf</t>
+  </si>
+  <si>
+    <t>@fernandoulrich @salimmattarbr @leandroruschel pergunte pro salim o que ele acha do benefício fiscal para as empresas dele, uma vez que compra carro com isenção de impostos, aluga e depois vende mais caro, como se tivesse recolhido os impostos normalmente. isso é liberalismo?</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa saudades 💔</t>
+  </si>
+  <si>
+    <t>rt @thebruninho_: petição pro kalil colocar bh em lockdown e o thiago neves não conseguir entrar na cidade</t>
+  </si>
+  <si>
+    <t>todo mundo escondendo o sorriso do rosto pela aula vaga</t>
+  </si>
+  <si>
+    <t>@joh4chan @finizituslol e só n é mais gay que eu falando a coffee, enfim, todo mundo é gay</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 corta pra fazer empanado</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 agora não tem pa onde escapá</t>
+  </si>
+  <si>
+    <t>quanto mais eu escuto blur mais eu me convenço que a única música boa deles é coffee and tv msm</t>
+  </si>
+  <si>
+    <t>queria ter essa capacidade de fazer o mal pras pessoas e não ter remorso igual várias pessoas tem. eu fico vendo situações tipo mano como uma pessoa consegue fazer isso com outra. tudo bem que tipo tem pessoas que odiamos/desgostando por diversos motivos.</t>
+  </si>
+  <si>
+    <t>rt @yorunonight: ＜saber＞ #絵フブキ #holofate https://t.co/lvjg0qqmda</t>
+  </si>
+  <si>
+    <t>@coffee_off_ pq ele me ignorou por meses 😔</t>
+  </si>
+  <si>
+    <t>@coffee___hunter kkkkkkkk e eu sou um slime</t>
+  </si>
+  <si>
+    <t>@mar_chikita oleee aaa</t>
+  </si>
+  <si>
+    <t>rt @doominicbronagh: então amg sinto em te informar que passar pano é limpar e se você associa isso a mulheres negras eu tenho que te conta…</t>
+  </si>
+  <si>
+    <t>@gacastelo @gifsdeanimal quando lançar o 5g troco o meu 8</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 bom saber, safado</t>
+  </si>
+  <si>
+    <t>@hotcakeschikit a pxa</t>
+  </si>
+  <si>
+    <t>@coffee___hunter nem cara croquete</t>
+  </si>
+  <si>
+    <t>café nosso, de cada dia!! 
+#cafe #bomdia #goodmorning #coffee https://t.co/6t5ivbmlhx</t>
+  </si>
+  <si>
+    <t>@isabela_santos_ tá quanto o coffee paradaiso?</t>
+  </si>
+  <si>
+    <t>@ootakusadboy putz</t>
+  </si>
+  <si>
+    <t>@kayky89219987 @eyshlav claro, e eu sou o batman</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 mas os slimes são fofinhos não tem como fugir dessa</t>
+  </si>
+  <si>
+    <t>@eyshlav @neman_coffee mas é uma vadia mesmo em</t>
+  </si>
+  <si>
+    <t>rt @polado_2: revoltado eu estava quando o galo anunciou o vagner mancini. no momento eu estou totalmente atordoado da cabeça, a ponto de c…</t>
+  </si>
+  <si>
+    <t>momentos que senti vergonha de mim.
+tinha uma mina q sla eu era bem insegura com ela uma vez até xinguei ela, e tinha um certo ciúmes dela sabe, aí descobri que ela ajudou uma pessoa q iria me influenciar positivamente (mas no final acabou uma bosta).</t>
+  </si>
+  <si>
+    <t>rt @pjiminportugal: 𝐿𝑜𝑣𝑒𝑙𝑦 𝐿𝑜𝑣𝑒𝑙𝑦 𝐽𝑖𝑚𝑖𝑛 𝐷𝑎𝑦 💛
+cup sleeve event no porto no café mustache coffee house!
+no fim de semana de 10-11 de outubr…</t>
+  </si>
+  <si>
+    <t>@fernandaaraujoz como o xandao</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 nem tanto</t>
+  </si>
+  <si>
+    <t>ele finalmente apareceu 🥺🥺 obrigada mbc por esse documentário de coffee prince só assim pro kdw sair da caverna msm https://t.co/zwhxj3uyky</t>
+  </si>
+  <si>
+    <t>@dekdsimp igñskdñalksñsjsk💕❣️💖💝💖💗💓💖💝💓💗💖💗💖💝💓</t>
+  </si>
+  <si>
+    <t>passar anos lendo coffee shop aus até destilar a sua essência e escrever uma monografia intitulada o herói de mil lattes</t>
+  </si>
+  <si>
+    <t>abertas as inscrições para o coffee of the year brasil 2020 (#coy). concurso reúne os melhores ☕️ cafés do país e elege os grandes destaques do ano. 
+os 🥇🥈🥉🏆campeões serão conhecidos na #sic digital, no dia 20 de novembro. 
+quer saber mais? acesse: https://t.co/w1bjj5mnpl https://t.co/wjhkuwnzgn</t>
+  </si>
+  <si>
+    <t>pd ser q eu de o fds pra td, do block vazo n falo mais nda</t>
+  </si>
+  <si>
+    <t>@arcyzawys @the__coffee aqui fica assim↑</t>
+  </si>
+  <si>
+    <t>eu nem tenho como explicar como eu amo coffee prince e como foi a época de exibição, nao tem um drama de hj em dia que eu possa comparar. só sei que só nesses segundos de vídeo eu já chorei, imagino assistindo tudo ♥️♥️♥️ https://t.co/wnjyus7muq</t>
+  </si>
+  <si>
+    <t>tomando um cafezin tão gostoso
+esse tá o coffee</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 eu sou burro por natureza, o empanado me ajuda a não ficar mais burro
+talvez eu esteja sendo contaminado pela merda do croquete</t>
+  </si>
+  <si>
+    <t>@kayky89219987 @neman_coffee menino primeiro vc nem me conhece pra tá me chamando de vadia 🙄 
+se alguém te falou alguma merda e vc n me conhece n venha me julgando sem me conhecer 🙄</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 fica quieto, você não consegue ver a verdade pois o croquete te cega</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa daqui 7 anos</t>
+  </si>
+  <si>
+    <t>rt @vicbrcelos: caramba hoje vi a tml valorizando o cazares foi a primeira vez em 2020 que meu coração de cazarete ficou feliz nesse lugar</t>
+  </si>
+  <si>
+    <t>@uttsbaek e se o ten poder participar será que teremos a cup of coffee parte 3???</t>
+  </si>
+  <si>
+    <t>@ricardo_smota @farialimaelevat não está alocando mal. está ficando com os melhores. se a iniciativa privada fosse boa, pq prestar estudar e prestar concurso?</t>
+  </si>
+  <si>
+    <t>o cast de coffee prince reunido meu deus ninguém me toca https://t.co/jluiald2gu</t>
+  </si>
+  <si>
+    <t>@coffee___hunter toma no seu cu vadia , croquete</t>
+  </si>
+  <si>
+    <t>duas paixões... 
+duas coisas que me anestesia ✨❤️
+.
+.
+.
+.
+#fotografia #foto #fotostumblr #feedorganizado #feed #feedfeed #feedmusic #violão #coffee #cafe #café #feelfreefeed #fé #fire #god #godisgood https://t.co/akbpbsdwvf</t>
+  </si>
+  <si>
+    <t>eu aceito o thiago neves se ele vir sem receber salário e pagando 3 mil reais pra cada torcedor do atlético por mês e nunca vestir a camisa do clube</t>
+  </si>
+  <si>
+    <t>@eyshlav @neman_coffee mau ela sabe oq a gente fez com aquelas 2 amigas dela kkj</t>
+  </si>
+  <si>
+    <t>finalmente achei que tinha me livrado da regra de três, mas ela voltou</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 por isso quase não leio mangá</t>
+  </si>
+  <si>
+    <t>jae do you want coffee? tea? or me? charot hshshshshshaha
+@jae_day6 
+#fromfriendsjaeandjed</t>
+  </si>
+  <si>
+    <t>@iukethief @disneygrlove - comigo</t>
+  </si>
+  <si>
+    <t>com o calor no talo, vou poder voltar a saborear um favorito que se chama iced coffee.</t>
+  </si>
+  <si>
+    <t>rt @lragazzi: a falsa contratação do thiago neves foi o evento mais próximo da inconfidência mineira que tivemos desde 1793</t>
+  </si>
+  <si>
+    <t>até o garçon gato/gostoso vai aparecer, affeeeeee
+coffee prince é tudo
+(eu não sabia que tinha 13 anos!) https://t.co/jgkgwpu0mm</t>
+  </si>
+  <si>
+    <t>@coffee___hunter tá me que arco ?</t>
+  </si>
+  <si>
+    <t>@gukk1994line mano,todas as músicas são boas,mas tem algumas que eu não curto. 13450,coffee,respect....</t>
+  </si>
+  <si>
+    <t>@andzrson coffee day sim!!! não da pra esquecer</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @brunode22555578 @farialimaelevat "ideologicamente falsos"?
+que droga é essa que você fumou? laudo é técnico e, ou diz o que tem ou mente. não tem "ideologia" nenhuma. não existe laudo materialmente verdadeiro e falso. ou é falso ou não é. é era materialmente falso.</t>
+  </si>
+  <si>
+    <t>enfim eu fico lembrando disso pq fico com certo peso, mesmo que ela não saiba que eu fiquei com um certo ódio dela antes sla eu fico me sentindo mal pq tive uma ideia da pessoa antes de se quer saber da história, espero que eu possa muda isso (pra para de passa vergonha)</t>
+  </si>
+  <si>
+    <t>@coffee___hunter então devido a altura meus bolsos sempre prendem na maçaneta, meus uniformes estão todos rasgados nos bolsos kkkm</t>
+  </si>
+  <si>
+    <t>se de alguem der mais q 50% eu pago uma cerveja
+compare music tastes with me ✨! https://t.co/8lp8sshqjo #musictaste</t>
+  </si>
+  <si>
+    <t>sobrevivendo hj só com o pensamento que vou comer aquele donuts divino do 89° coffee com a taw</t>
+  </si>
+  <si>
+    <t>rt @iukethief: cara tem tantas pessoas pra você shippar com o leo valdez: 
+- piper
+- hazel
+- rachel
+- reyna 
+- nico
+- jason
+- jason e piper…</t>
+  </si>
+  <si>
+    <t>rt @hestbrave: pelo amor de deus parem de compartilhar fotos da mari ferrer no pior momento da vida dela e comecem a compartilhar a foto e…</t>
+  </si>
+  <si>
+    <t>rt @babizawn: e a padaria que abriu aqui do lado da ufu que é padaria e distribuidora de bebidas e chama coffee breja</t>
+  </si>
+  <si>
+    <t>só queria um café...
+ #coffee #meh https://t.co/xsoikxvnp8</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa eu ja tenho...</t>
+  </si>
+  <si>
+    <t>como sempre o client da @riotgamesbrasil se demonstra cada dia que passa que e um excelente client novamente com os bugs do chat.
+ta de parabéns ae a equipe.</t>
+  </si>
+  <si>
+    <t>segundo dia no uruguai, fui em um coffee break de maconha, troquei altas ideias com o "cebola", e ganhei umas bud, 💪🏻💪🏻💪🏻.</t>
+  </si>
+  <si>
+    <t>@coffee___hunter team croquete enfia esse empanado no cu e gira</t>
+  </si>
+  <si>
+    <t>@coffee___hunter avlis
+eh...gostei até</t>
+  </si>
+  <si>
+    <t>📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
+e para comemorar o dia do cliente ...
+mimos, brindes, coffee break, coquetel, novidades... 
+✖️ 📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/y1ngi7kqqt</t>
+  </si>
+  <si>
+    <t>black cave coffee ✅
+academia ✅
+correr com jake ✅
+banho gelado ✅
+meditação ✅
+500ml de água ✅
+⏱11:00 
+o que você fez hoje?</t>
+  </si>
+  <si>
+    <t>@dekdsimp a mimir, a mimir</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 empanado
+croquete é ruim</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa obrigada ❤️</t>
+  </si>
+  <si>
+    <t>@ahneverland ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/cv1dy75dim</t>
+  </si>
+  <si>
+    <t>@brunode22555578 @farialimaelevat quem fez os laudos foi uma empresa alemã privada.</t>
+  </si>
+  <si>
+    <t>rt @brinydelaet: espalhando um pouquinho de amor na sua timeline! ganhei minha semana com esse vídeozinho 🖤</t>
+  </si>
+  <si>
+    <t>@coffee___hunter me add no discord q eu posso tá lá</t>
+  </si>
+  <si>
+    <t>rt @barbara_matsuda: o capitalismo vende um café com gelo chamando de “iced coffee”</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 eu sei, mas to no ep 198 então to feliz</t>
+  </si>
+  <si>
+    <t>@moneymalvadao @sharkhammer99 eu tentei e muito, mas ele só quer saber daquele caminho do croquete, ele não percebe que isso só traz mal</t>
+  </si>
+  <si>
+    <t>@walking_coffee @aidanrgallagher kkkkkkkkkkk reflexões</t>
+  </si>
+  <si>
+    <t>@joaoquirino1 por você eu até aprendo beber 
+coffee sem sugar
+boa noite meu príncipe ❤️🙌☕🥐🥐☕</t>
+  </si>
+  <si>
+    <t>eu amo coffee shop au ou florist au como qualquer outra garota básica, mas chega né? kd as fanfic cowboy au, um gatlinburg au, hóquei no gelo au, kd as fanfic sobre corrida de fórmula um? reality show de moda? kd? kd a criatividade?</t>
+  </si>
+  <si>
+    <t>@radaronline virou piada isso aí</t>
+  </si>
+  <si>
+    <t>"ah vai ter coffee break"
+vai a puta que te pariu</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 eu falei que é o meu</t>
+  </si>
+  <si>
+    <t>@gggeesdorf @ilovealcool mornings are for coffee and contemplation
+hora de sair da cama é depois das 11h30</t>
+  </si>
+  <si>
+    <t>tb a cuando tomábamos iced coffee 24/7 @andreaclpadilla</t>
+  </si>
+  <si>
+    <t>café do brasil 
+https://t.co/npan73marm</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 toma no seu cu, três vezes vadia😎
+aqui é team empanado</t>
+  </si>
+  <si>
+    <t>@polado_2 @rah_coffee e requintes de crueldade</t>
+  </si>
+  <si>
+    <t>@coffee___hunter não acredito, tu curte gears mano!!</t>
+  </si>
+  <si>
+    <t>coffee ++ traz os melhores cafés super especiais do brasil para o mercado interno: loja… https://t.co/ojidnrhvp1</t>
+  </si>
+  <si>
+    <t>@apple_juice53 só por conta desse documentário q vai ter, agr eu quero assistir coffee prince kkkkkkk</t>
+  </si>
+  <si>
+    <t>@galoinfo2 particularmente acho importante mostrar que sampaoli e mattos não são donos do clube</t>
+  </si>
+  <si>
+    <t>@kayky89219987 @eyshlav unico kid aq sou eu porra</t>
+  </si>
+  <si>
+    <t>@coffee___hunter gosto dos dois mas sou team xbox graças ao bom e velho gears of war</t>
+  </si>
+  <si>
+    <t>rt @kamilabrunelle: queria o seq sendo presencial com aquele coffee break, vários "docin" de leite</t>
+  </si>
+  <si>
+    <t>agr é asteirode pelo amooor https://t.co/xbhsljsfcq</t>
+  </si>
+  <si>
+    <t>@moneymalvadao @coffee___hunter calado jogador de wow</t>
+  </si>
+  <si>
+    <t>@bizz_coffee abandonada ou jogando dark souls?</t>
+  </si>
+  <si>
+    <t>rt @urghgrrrargh: também sinto isso por você</t>
+  </si>
+  <si>
+    <t>rt @ceedric10: cancelar sócio torcedor por achar que o time tá fazendo uma cagada histórica é um protesto tão válido como qualquer outro. s…</t>
+  </si>
+  <si>
+    <t>rt @rngdalton: ao poucos eu conquistei  oque sempre sonhei. ;-; https://t.co/hamor50ddg</t>
+  </si>
+  <si>
+    <t>89 mil reais em arroz https://t.co/lamabxccep</t>
+  </si>
+  <si>
+    <t>@velhosabujo @brunode22555578 @farialimaelevat os laudos eram ideologicamente falsos, não materialmente falsos. muito difícil descobrir a falsidade ideológica, pois são assinados por engenheiros (ir)responsáveis pelo que foi declarado.</t>
+  </si>
+  <si>
+    <t>@coffee___hunter toma no seu cu estão</t>
+  </si>
+  <si>
+    <t>@jrzexnik ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/c5ectzcwqd</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 nem, empanado melhor</t>
+  </si>
+  <si>
+    <t>@annemsudre vou ter que me esforçar muito pra ter a melhor mamada 😔✊</t>
+  </si>
+  <si>
     <t>Teste</t>
+  </si>
+  <si>
+    <t>@ethxnkm @coffee_beller @_nooahjs @nelson_c_nott @madison_c_nott @_black_justin_ que bom 🥰</t>
+  </si>
+  <si>
+    <t>ah não, coffee mexe comigo</t>
+  </si>
+  <si>
+    <t>@cactussvante @fleursbear @offcialseokjiin @kwonjwm @detailsrosie @ismytoxicc @jhopecolorr @jenniemeretriz @colorsdery @guinhojk @lovelyminsuga93 @maffuyu_ @ssulkitw0 @taehyskyy @jnkpoesie obggg ami</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 mentiroso nada, só estou tentando te mostrar que esse caminho de croquetes não é bom... venha... venha beast... para o caminho dos empanados</t>
+  </si>
+  <si>
+    <t>opa odeio acabar o estágio e ir logo pra casa, e hoje não há coffee com nng 🥺</t>
+  </si>
+  <si>
+    <t>@gijacopetti que pena né</t>
+  </si>
+  <si>
+    <t>@coffee___hunter e a realidade,tem muito dessa merda na minha tml</t>
+  </si>
+  <si>
+    <t>energia ruim nois tem de monte 🥶</t>
+  </si>
+  <si>
+    <t>@vinicius_coffee siiim todo mundo disfarçando</t>
+  </si>
+  <si>
+    <t>@adriandduwu @dekdsimp ay no, se va a emputar más jadjsksjaf</t>
+  </si>
+  <si>
+    <t>rt @squallzera: dale, sexta 18h vamo ver quem é o maior mentiroso nessa bagaça</t>
+  </si>
+  <si>
+    <t>quero ver!!! a reunião do elenco de coffee prince ♥
+parece que filmaram separados né? mas tá bom, não vou pedir demais. https://t.co/lzt7jrxwtj</t>
+  </si>
+  <si>
+    <t>@dizz13y ficou muito legal, um dos melhores talvez</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa alguns meses 🤩</t>
+  </si>
+  <si>
+    <t>📽 | o documentário sobre 'coffee prince', da mbc, está previsto para ir ao ar em 24/09 e 01/10, e reunirá o elenco principal do drama. vocês estão prontos para ver #gongyoo, #yooneunhye, #leesunkyun, #chaejungan, #kimjaewook e #kimdongwook juntos novamente, 13 anos depois? https://t.co/cut6q9blcw</t>
+  </si>
+  <si>
+    <t>se o nct 2020 for verdade eu só quero um a cup of coffee parte 3 senhor será que é pedir demais</t>
+  </si>
+  <si>
+    <t>@coffee___hunter burro pra caralho ,deve ser o tanto de empanado que tu anda comendo</t>
+  </si>
+  <si>
+    <t>@neman_coffee @kayky89219987 ah desculpa ent 
+é pq eu tenho q aceitar calada oq ele falou né</t>
+  </si>
+  <si>
+    <t>@coffee___hunter calado otário e a porra do seu empanado que te deixa mais burro</t>
+  </si>
+  <si>
+    <t>@coffee_ahh felicidades🥺💕</t>
+  </si>
+  <si>
+    <t>entendam, o sérgio só se posiciona pra fazer marketing pra si próprio. sempre deixa 100% das decisões pro diretor de futebol. deu total liberdade pra alexandre tadeu, marques(primeira vez na vida nesse cargo), rui costa e agr o mattos, ele nunca deve ter se oposto a nada de campo</t>
+  </si>
+  <si>
+    <t>ps. ao som de black coffee pra ficar melhor</t>
+  </si>
+  <si>
+    <t>coffee prince é minha vida</t>
+  </si>
+  <si>
+    <t>@lana_juno siim ótima ideia</t>
+  </si>
+  <si>
+    <t>@_btsarmmy_ siim aaaa kkkkkk 
+esqueci até de adicionar coffee e ma city</t>
+  </si>
+  <si>
+    <t>rt @felipetetz: ‘bora na cachoeira relaxar... https://t.co/qbj8he8ll4</t>
+  </si>
+  <si>
+    <t>@wfvoting @bts_twt a minha playlist tem coffee, spring day, moving on, já tô até chorando😭😭😭😭😭 https://t.co/71klm9btf4</t>
+  </si>
+  <si>
+    <t>essa aula grita por um coffee break</t>
+  </si>
+  <si>
+    <t>@o_antagonista é um animal neoliberal fdp</t>
+  </si>
+  <si>
+    <t>fala assim cmg n q hj eu to na brisa</t>
+  </si>
+  <si>
+    <t>rt @tnndark: saudades de treinamento presencial com coffee break</t>
+  </si>
+  <si>
+    <t>@aqueledonato batata fenomenal eu imploro vai ouvir o podcast coffee break french eu aprendo muito</t>
+  </si>
+  <si>
+    <t>eu, meu iced coffee e a aula acontecendo 
+tá virando rotina</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu rio quanto eu quiser em nome do croquete</t>
+  </si>
+  <si>
+    <t>@kingfalcom na mesma situação que ela</t>
+  </si>
+  <si>
+    <t>rt @herovante: o fato de você saber exatamente quem é que ele ta encarando... muda. tudo.  
+ https://t.co/ct75horik1</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 muita diferença mesmo</t>
+  </si>
+  <si>
+    <t>respondendo perguntas e curiosidades sobre cada um e depois aproveitamos para bater um papo mais próximo e descontraído acompanhado de coffee break. esse evento está sendo pensado para ser itinerante, então quem sabe seu instituto não receberá um encontecs no futuro? +</t>
+  </si>
+  <si>
+    <t>não é possível que alguém ainda consiga ouvir e gostar da música death bed (coffee for your head)</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 realmente</t>
+  </si>
+  <si>
+    <t>@coffee_strange @spacebooksbr mano kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>meu maior medo era me torna uma pessoa abusiva e tóxica, depois de ter vivido com isso em relacionamentos e amizades eu ficava com medo de me torna igual a eles sabe. 
+e com o tempo "desenvolvi" essa voz da consciência, e tipo literalmente qualquer coisa ela já fala pra mim.</t>
+  </si>
+  <si>
+    <t>rt @sgoldenstein: contribuição que dei para matéria do valor sobre a estratégia de financiamento do tesouro. https://t.co/i5fnodq5ao</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 em nome do empano, eu esmagou a tua cara e ainda faça outra coisa que não consegui pensar, yeah</t>
+  </si>
+  <si>
+    <t>rt @taegitulips: - coffee 
+as vezes preciso imaginar que um dia teria meu clichê adolescente e a música em si me acalma🧡 https://t.co/ojuc…</t>
+  </si>
+  <si>
+    <t>rt @flamexllsxz: se ela me chama de vida eu vou mudar de vida 🎉</t>
+  </si>
+  <si>
+    <t>sdds alegol https://t.co/bniz9xxm09</t>
+  </si>
+  <si>
+    <t>rt @ethxnkm: tudo!</t>
+  </si>
+  <si>
+    <t>rt @apotter_malfoy: 😱😱 
+🎶 sua mãe sabe mais
+ouça o que eu digo
+é um mundo assustador
+sua mãe sabe mais
+cheio de perigos, acredite por favo…</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 acho que a maioria tem esse sentimento, eu tbm</t>
+  </si>
+  <si>
+    <t>eu encontrei a minha pessoa certa. você me faz tão feliz, não quero que isso acabe nunca. obrigada por me cuidar tanto. te amo ❤️
+"you're the coffee that i need in the morning"
+"the life is a movie, you're the best part" https://t.co/8tn7snwubs</t>
+  </si>
+  <si>
+    <t>quando eu estou muito nervosa com algo eu gosto de escutar coffee e just one day, parece que mesmo que por pouco tempo eu simplismente "esqueço" meus problemas e apenas curto o momento em que estou escutando essas músicas</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 pô mas rir em nome do croquete só te deixa mais fraco de tão ruim que é</t>
+  </si>
+  <si>
+    <t>comecei a seguir o insta da the coffee só pra passar vontade todo dia</t>
+  </si>
+  <si>
+    <t>gente, to apaixonada pelo @aidanrgallagher 
+será q é pedofilia? kkkkk</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 o teu?</t>
+  </si>
+  <si>
+    <t>aqui está uma música para você… death bed (coffee for your head) de powfu
+https://t.co/czr7oe2xci</t>
+  </si>
+  <si>
+    <t>@amandan79313929 pq vc n me atende moh</t>
+  </si>
+  <si>
+    <t>@_rafaa98 baza coffee? mete anúncio no twitter ver quem quer tomar café connosco</t>
+  </si>
+  <si>
+    <t>killua falsificado está passando pela sua timeline, aproveite https://t.co/4yycgdecyw</t>
+  </si>
+  <si>
+    <t>rt @mkteirasesports: 🐝💖 chegamosss 💖🐝
+é com muita alegria que damos início ao marketeiras esports!
+viemos para auxiliar você que é stream…</t>
+  </si>
+  <si>
+    <t>@00poemnj ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/z6c7gjl2sp</t>
+  </si>
+  <si>
+    <t>@the__coffee roi, você é stan de tua e ouat, como que a gente nunca se falou antes???</t>
+  </si>
+  <si>
+    <t>@bizz_coffee eu entendi mas so falei que seria melhor outra coisa e nao somente aquilo ali xd</t>
+  </si>
+  <si>
+    <t>rt @obviusmultimar1: 📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
+e para comemorar o dia do cliente ...
+mimos, brindes,…</t>
+  </si>
+  <si>
+    <t>rt @itscarolbtw: coffee dates são tão bons :)))</t>
+  </si>
+  <si>
+    <t>@sugary_coffee @tododiagostosa @nanda_disus elogia minha mulher né</t>
+  </si>
+  <si>
+    <t>mas tipo já vi desconhecido fazendo mal pra uma pessoa ou até "amigo" e a pessoa faz várias vezes, tipo ela não se arrepende ela não tem aquela voz da razão/sensk que era pra todos terem.</t>
+  </si>
+  <si>
+    <t>@shitposterlxz @coffee_off_ não kakak</t>
+  </si>
+  <si>
+    <t>rt @leomessidepre: messi no seu gol 500 // torcedores do barça no gol 501 do messi 🐐❤️ https://t.co/diawclx34k</t>
+  </si>
+  <si>
+    <t>e não vou dizer que não tenho nem uma atitude tóxica, pq eu tenho, todo mundo tem, só que eu tento muda elas evitar ou corrigir caso eu tenha elas sabe.
+aí eu vejo gente que sla destrata namorada, destrata amigo, destrata família eu fico (???)</t>
+  </si>
+  <si>
+    <t>@coffee___hunter henrique kkkkkkkkk , leirbag esse é o meu</t>
+  </si>
+  <si>
+    <t>rt @vantegoes: quando o jungkook foi cantar 'coffee', e engasgo ouvindo o namjoon dizer 'baby', com a voz grossa kkkkkkkkkkkkkkkkk
+jungkoo…</t>
+  </si>
+  <si>
+    <t>@salimmattarbr @leandroruschel por que os liberais se socorrem ao estado sempre que há uma crise? pq pedem isenções fiscais e financiamentos a juro zero ?</t>
+  </si>
+  <si>
+    <t>fico igual pinto no lixo quando me chamam p um coffee break 
+tem coisa melhor não</t>
+  </si>
+  <si>
+    <t>o que quiero salir de latam usmdjsjd</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa nenhum infelizmente...</t>
+  </si>
+  <si>
+    <t>@fullmetalgonza @z0elina @hash_coffee de nada</t>
+  </si>
+  <si>
+    <t>rt @felipesimonetti: qual a surpresa quando vejo a escalação para @atletico x @redbullbraga e várias pessoas me marcando tentando entender…</t>
+  </si>
+  <si>
+    <t>@coffee_ahh felicidades 👏❤</t>
+  </si>
+  <si>
+    <t>@coffee___hunter meu nome é pedro henrique</t>
+  </si>
+  <si>
+    <t>aquele café gelado no capricho😀
+#cafe #coffee #icecoffee #coffeelovers #cafezeiros #espresso #cafegelado #sorvete #sorvetetortaalema #sheridans #licor  #segundafeira #cafedanoite #chantilly https://t.co/ezg4xxnydu</t>
+  </si>
+  <si>
+    <t>coffee break - casamento terminou com noiva ao soco com rival - https://t.co/zvb3uhe5jf https://t.co/pnbf8yye7e</t>
+  </si>
+  <si>
+    <t>@denny__boo gears é maravilhoso</t>
+  </si>
+  <si>
+    <t>@coffee_off_ pq mô?</t>
+  </si>
+  <si>
+    <t>rt @coelaaranjinha: ela tá chorando por isso? imagina se mora com minha mãe ia chorar todos os dias.</t>
+  </si>
+  <si>
+    <t>rt @essesusersai: vou falar nada pois estão de folga, mas imagina se certo jogador estivesse aqui no meio ein</t>
+  </si>
+  <si>
+    <t>acho que uma das minhas metas pro ano que vem vai ser começar a investir em cosplays. 
+serio e algo que eu sempre quis "trabalha" um dos motivos de eu querer tanto aprende a costurar.</t>
+  </si>
+  <si>
+    <t>ai quero assistir coffee prince agora.... https://t.co/w2mguxcsyd</t>
+  </si>
+  <si>
+    <t>@spacebooksbr @coffee_strange aguenta mais um</t>
+  </si>
+  <si>
+    <t>@coffee___hunter tbm não queria vc no meu</t>
+  </si>
+  <si>
+    <t>@coffee___hunter o meu</t>
+  </si>
+  <si>
+    <t>coffee de música de fundo 😭 https://t.co/prh1khz6xs</t>
+  </si>
+  <si>
+    <t>a noite esfriou, um chocolate quente seria bom agora. https://t.co/qvuna40u1u</t>
+  </si>
+  <si>
+    <t>todo um povo iludidasso kakakak
+apoia os bagulho local seus pau no cu, bora pro coffee house. https://t.co/0zzjdbrkkt</t>
+  </si>
+  <si>
+    <t>finalmente uma manhã mais fresca, não aguento todo esse calor.</t>
+  </si>
+  <si>
+    <t>@kookmincoffe as q eu mais amo eh coffee e umbrella na versao da ember island, tbm winter bear do taehyung mas n tem no spotify</t>
+  </si>
+  <si>
+    <t>rt @theweirdodork: it's a spooky cliche//supercorp au
+kara é melhor amiga de lena, dona de um dos mais famosos coffee's shop de national c…</t>
+  </si>
+  <si>
+    <t>@coffee___hunter não venha pro caminho certo hunter</t>
+  </si>
+  <si>
+    <t>eu falo que a situação do cazares é bizarra no galo. ele não serve pelo extra-campo, mas um agressor de mulher e o protagonista de um time rebaixado pelo extra-campo serve.</t>
+  </si>
+  <si>
+    <t>@taeseokloveu @coffee_lalisa parabéns 🎉🎈</t>
+  </si>
+  <si>
+    <t>rt @kimjaewookbr: 📽 | o documentário sobre 'coffee prince', da mbc, está previsto para ir ao ar em 24/09 e 01/10, e reunirá o elenco princi…</t>
+  </si>
+  <si>
+    <t>@coffee_ahh confirmo</t>
+  </si>
+  <si>
+    <t>@deliiahbard não sei amg kkkkk
+o twitter é bem grande neh https://t.co/s2nhnleakr</t>
+  </si>
+  <si>
+    <t>foda de passar o dia todo travadão de ansiedade é que quando passa, eu quero fazer uma grande mudança na minha vida achando que vai resolver</t>
+  </si>
+  <si>
+    <t>rt @coffee_off_: hj eu to bem malzin</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 o meu</t>
+  </si>
+  <si>
+    <t>rt @miloleh: °•soft litte coffee•° au bf &amp;amp; yuri on ice
+onde ash descobre que viktor, seu gerente do café com letras, contratou novos funci…</t>
+  </si>
+  <si>
+    <t>@coffee___hunter tá perdendo muito</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 deixa meu sobrenome
+teu sobrenome é gabriel?!</t>
+  </si>
+  <si>
+    <t>@pincesodosenpai ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/6ylzuriqfs</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 vem tu desgraça, eu que não vou para essa lado obscuro</t>
+  </si>
+  <si>
+    <t>@tensoblog da demora ao passar o café? alias, ja passamos um little coffee hoje?</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa -7 anos kkkkk</t>
+  </si>
+  <si>
+    <t>@velhosabujo @brunode22555578 @farialimaelevat ela conferiu, mas os dados dos laudos eram falsos. sabe como é na iniciativa privada. ...leva quem entrega o serviço ao gosto do freguês. se não entregar, contrata outro.</t>
+  </si>
+  <si>
+    <t>@bizz_coffee já se cadastrou, miga? ❤❤</t>
+  </si>
+  <si>
+    <t>minhanossa eu só percebi agora q o namorado da maju ta tocando no vídeo de "coffee" da tori kelly</t>
+  </si>
+  <si>
+    <t>aqui em casa me chamam de estressadinha
+mas eles nunca viram meu irmão bravo com algo
+ele quebra esse algo
+sacas?
+hoje ele jogou uma pedra no carro de um fdp que fez uma merda fodida há uns 2 anos atrás pra ex dele</t>
+  </si>
+  <si>
+    <t>aqui está uma música para você… coffee de bts
+https://t.co/sd8dkeacfn</t>
+  </si>
+  <si>
+    <t>@kayky89219987 @eyshlav você tá sendo mais podre ainda mano.</t>
   </si>
 </sst>
 </file>
@@ -378,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +1822,1501 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -396,7 +3324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,7 +3332,607 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/Coffee.xlsx
+++ b/Coffee.xlsx
@@ -15,55 +15,1362 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>@sharkhammer99 mas é bom mesmo, tipo na vida real meus amigos acham que eu sou mó de boa, mas eu só sou um café mano</t>
+    <t>@walking_coffee amei</t>
+  </si>
+  <si>
+    <t>89 mil reais em arroz https://t.co/lamabxccep</t>
+  </si>
+  <si>
+    <t>@brunode22555578 @farialimaelevat quem fez os laudos foi uma empresa alemã privada.</t>
+  </si>
+  <si>
+    <t>@coffee_off_ meu cllr ta descarregando dps nois faz ta</t>
+  </si>
+  <si>
+    <t>@kokonutshei puedo ofrecerte 100nmt?</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 @coffee___hunter boa , ezreal é massa!</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @farialimaelevat ou então a vale estatal era improdutiva mesmo e não tinha acidentes porque não fazia nada</t>
+  </si>
+  <si>
+    <t>#bomdia
+#minasgerais
+#coffee
+#cafemineiro em santa rita do sapucaí https://t.co/xecjjthhlj</t>
+  </si>
+  <si>
+    <t>agr é asteirode pelo amooor https://t.co/xbhsljsfcq</t>
+  </si>
+  <si>
+    <t>aqui está uma música para você… coffee de bts
+https://t.co/sd8dkeacfn</t>
+  </si>
+  <si>
+    <t>tomando um cafezin tão gostoso
+esse tá o coffee</t>
+  </si>
+  <si>
+    <t>@coffee_ahh felicidades 👏❤</t>
+  </si>
+  <si>
+    <t>@shotosoftly nossa eu tbm, ela linda aquela metadinha, saudades</t>
+  </si>
+  <si>
+    <t>café do brasil
+https://t.co/c0czcm0mtj</t>
+  </si>
+  <si>
+    <t>@feeismoormeier sim, a peyton coffee é 12 pessoas dos unidos da tijuca</t>
+  </si>
+  <si>
+    <t>@exilebabs vc assistiu coffee and vanilla? tem na netflix daqui e resolvi perguntar se vale a pena</t>
+  </si>
+  <si>
+    <t>e triste pq não e todo mundo que vai querer mudar esse pensamento e "acorda" a voz da razão.</t>
+  </si>
+  <si>
+    <t>@moneymalvadao @sharkhammer99 eu tentei e muito, mas ele só quer saber daquele caminho do croquete, ele não percebe que isso só traz mal</t>
+  </si>
+  <si>
+    <t>quem precisa de jornal se tem minha sala</t>
+  </si>
+  <si>
+    <t>@ricardo_smota @farialimaelevat trabalhador privado 90% sem qualificação e analfabeto funcional.</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu gosto mt de todos e ñ consigo escolher
+nintendo tem clássicos incríveis 
+xbox tem serviços ótimos e exclusivos bons
+a sony tem os melhores exclusivos dos três 
+pc tem os graphicos mais pika de todos
+e eu sofro por ser pobre</t>
+  </si>
+  <si>
+    <t>killua falsificado está passando pela sua timeline, aproveite https://t.co/4yycgdecyw</t>
+  </si>
+  <si>
+    <t>@bizz_coffee já se cadastrou, miga? ❤❤</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 @coffee___hunter bons jogos sem dúvida porém wow é bom</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 um slime fofinho</t>
+  </si>
+  <si>
+    <t>@toxicojuan_ @dekdsimp @adriandduwu ahora entendí jasuahdjsjd</t>
+  </si>
+  <si>
+    <t>@coffee___hunter @sharkhammer99 ele sempre são cabeça dura mais eles mudam</t>
+  </si>
+  <si>
+    <t>@coffee___hunter ja voltou</t>
+  </si>
+  <si>
+    <t>pausa para um café em the coffee. https://t.co/b25cvhj8ig</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 ata, achei que tinha sido você</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa já fiz faz 15 anos hahahahahaha</t>
+  </si>
+  <si>
+    <t>ah não, coffee mexe comigo</t>
+  </si>
+  <si>
+    <t>@sh0ckgirl ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/guwoas92fc</t>
+  </si>
+  <si>
+    <t>@coffee___hunter me add no discord q eu posso tá lá</t>
+  </si>
+  <si>
+    <t>@coffee___hunter burro pra caralho ,deve ser o tanto de empanado que tu anda comendo</t>
+  </si>
+  <si>
+    <t>@gggeesdorf @ilovealcool mornings are for coffee and contemplation
+hora de sair da cama é depois das 11h30</t>
+  </si>
+  <si>
+    <t>@sensemarcia @walking_coffee vem rir cmg</t>
+  </si>
+  <si>
+    <t>@coffee___hunter n esperava q ficasse legal mas acabou ficando</t>
+  </si>
+  <si>
+    <t>@coffee___hunter meu nome é pedro henrique</t>
+  </si>
+  <si>
+    <t>oii gente, sou novo nesse mundo de booktt hehe. sou um adolescente nada normal. gosto de ler, assistir série e filmes, viciado em café para manter o ritmo (mas tbm eu amo coffee). afim de novos amgs e interagir bastante, surtar muito com meus personagens e chorar junto tbm 🥺👉🏾👈🏾</t>
+  </si>
+  <si>
+    <t>@coffee___hunter sim ,eu conheço ele antes da fama</t>
+  </si>
+  <si>
+    <t>✵ᑭeᗪiᗪo✵: combo amoroso
+»⋆ꭰꭼ: papai 
+»⋆ꮲꭺꮢꭺ:  @kittenscor @noforninho e @brotinhomj
+"para os amores da minha vida" https://t.co/wzre5spq5m</t>
+  </si>
+  <si>
+    <t>✵ᑭeᗪiᗪo✵: combo faminto
+»⋆ꭰꭼ: mel
+»⋆ꮲꭺꮢꭺ: @pukksam 
+"um agrado inicial apenas para você ver o que te aguarda nos próximos dias, com carinho para a faminta mais perfeita hehe💖😜" https://t.co/00tplbixta</t>
+  </si>
+  <si>
+    <t>eu amo coffee shop au ou florist au como qualquer outra garota básica, mas chega né? kd as fanfic cowboy au, um gatlinburg au, hóquei no gelo au, kd as fanfic sobre corrida de fórmula um? reality show de moda? kd? kd a criatividade?</t>
+  </si>
+  <si>
+    <t>@fernandocluiz virou piada as denúncias da lavajato</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 nem, empanado melhor</t>
+  </si>
+  <si>
+    <t>@adriandduwu nada
+/cry</t>
+  </si>
+  <si>
+    <t>começar o dia tomando café e ouvindo coffee é tudo de bom</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 eu sou burro por natureza, o empanado me ajuda a não ficar mais burro
+talvez eu esteja sendo contaminado pela merda do croquete</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 putz, usa o wpp</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 toma no seu cu, três vezes vadia😎
+aqui é team empanado</t>
+  </si>
+  <si>
+    <t>@denny__boo ficou legal até</t>
+  </si>
+  <si>
+    <t>@prinbruce @louvplace não precisa</t>
+  </si>
+  <si>
+    <t>bom dia quase tarde, como estão? em minha cidade amanheceu um pouco fria então está bom para tomar um cafezinho quentinho ☕❤ https://t.co/qdsuapp5vx</t>
+  </si>
+  <si>
+    <t>como tá o yoni de vcs https://t.co/4vrj2xyywh</t>
+  </si>
+  <si>
+    <t>¡terminé!💕</t>
+  </si>
+  <si>
+    <t>@gacastelo @gifsdeanimal quando lançar o 5g troco o meu 8</t>
+  </si>
+  <si>
+    <t>@rgrpedro31 ai, ele só anda com os mais velhos :(
+ahsuhsush</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 fica quieto, você não consegue ver a verdade pois o croquete te cega</t>
+  </si>
+  <si>
+    <t>@kiwihmm felicidades!!🤩🤩</t>
+  </si>
+  <si>
+    <t>@brunapalma_ @virogowski1 @ocpiress @laurazlac 45 quando alguma tinha muito trabalho e precisava subir... depois tinha o coffee das 15h né, não podemos esquecer...</t>
+  </si>
+  <si>
+    <t>@dizz13y ficou legal</t>
+  </si>
+  <si>
+    <t>- então, não vai ter rebaixamento esse ano
+- ok. mas e o coffee break? quando começa?</t>
+  </si>
+  <si>
+    <t>@lobolw mó chato</t>
+  </si>
+  <si>
+    <t>eu nem tenho como explicar como eu amo coffee prince e como foi a época de exibição, nao tem um drama de hj em dia que eu possa comparar. só sei que só nesses segundos de vídeo eu já chorei, imagino assistindo tudo ♥️♥️♥️ https://t.co/wnjyus7muq</t>
+  </si>
+  <si>
+    <t>@brunode22555578 @farialimaelevat foi a parte estatal que causou os acidentes kkkkk
+tipo pib público x pib privado</t>
+  </si>
+  <si>
+    <t>@fernandaaraujoz como o xandao</t>
+  </si>
+  <si>
+    <t>enfim eu fico lembrando disso pq fico com certo peso, mesmo que ela não saiba que eu fiquei com um certo ódio dela antes sla eu fico me sentindo mal pq tive uma ideia da pessoa antes de se quer saber da história, espero que eu possa muda isso (pra para de passa vergonha)</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 você nunca me vencerá, em nome do empano, eu declaro que você pegue o croquete e enfia no cu do meu primo junto com o 3ds
+'-'</t>
+  </si>
+  <si>
+    <t>lithium = obra de arte</t>
+  </si>
+  <si>
+    <t>@coffee___hunter jaja vou tomar banho</t>
+  </si>
+  <si>
+    <t>@rhai_iz ain obrigado 😳😳😔</t>
+  </si>
+  <si>
+    <t>quero ver!!! a reunião do elenco de coffee prince ♥
+parece que filmaram separados né? mas tá bom, não vou pedir demais. https://t.co/lzt7jrxwtj</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 por isso quase não leio mangá</t>
+  </si>
+  <si>
+    <t>@wfvoting @bts_twt a minha playlist tem coffee, spring day, moving on, já tô até chorando😭😭😭😭😭 https://t.co/71klm9btf4</t>
+  </si>
+  <si>
+    <t>eu falo que a situação do cazares é bizarra no galo. ele não serve pelo extra-campo, mas um agressor de mulher e o protagonista de um time rebaixado pelo extra-campo serve.</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa alguns meses 🤩</t>
+  </si>
+  <si>
+    <t>@lisandramlopes nunca li nada tão verdadeiro, o nosso coffee break dura a tarde toda ✌🏼</t>
+  </si>
+  <si>
+    <t>aquele café gelado no capricho😀
+#cafe #coffee #icecoffee #coffeelovers #cafezeiros #espresso #cafegelado #sorvete #sorvetetortaalema #sheridans #licor  #segundafeira #cafedanoite #chantilly https://t.co/ezg4xxnydu</t>
+  </si>
+  <si>
+    <t>tava jogando mine com meu amigo, e os animal dele morreu tudo afogado, vamos fazer os túmulos amanhã, deixe seu f</t>
+  </si>
+  <si>
+    <t>contratação do thiago neves é realmente caso de assassinato no atlético. o responsável deve ser crucificado naquela cruz da praça do papa</t>
+  </si>
+  <si>
+    <t>@denny__boo gears é maravilhoso</t>
+  </si>
+  <si>
+    <t>@ivylewisrp ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/mkasjauxlq</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu li errado kkkkk eu li nome o meu é bem grande então só vou pegar meu último sobrenome oriebir</t>
+  </si>
+  <si>
+    <t>@coffee___hunter o meu</t>
+  </si>
+  <si>
+    <t>@bizz_coffee eu entendi mas so falei que seria melhor outra coisa e nao somente aquilo ali xd</t>
+  </si>
+  <si>
+    <t>@luizxpotts "a música mais triste do ano" ela é linda de tão triste 
+"if the world was ending" "coffee"  essas duas vc deve conhecer . 
+boa sorte com a depressão amg 🙏 kkkk</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 ih ala falou o carinha do croquete</t>
+  </si>
+  <si>
+    <t>@denny__boo @coffee___hunter ótimo gosto cara</t>
+  </si>
+  <si>
+    <t>não é possível que alguém ainda consiga ouvir e gostar da música death bed (coffee for your head)</t>
+  </si>
+  <si>
+    <t>sou só eu que não gosto de jogar mine sozinho?</t>
+  </si>
+  <si>
+    <t>📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
+e para comemorar o dia do cliente ...
+mimos, brindes, coffee break, coquetel, novidades... 
+✖️ 📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/y1ngi7kqqt</t>
+  </si>
+  <si>
+    <t>bom dia vou fazer vietnamese coffee</t>
+  </si>
+  <si>
+    <t>combo novo!! vão lá conferir 🎉🎉 https://t.co/8gnoeyg7qu</t>
+  </si>
+  <si>
+    <t>@ethxnkm @coffee_beller @_nooahjs @nelson_c_nott @madison_c_nott @_black_justin_ que bom 🥰</t>
+  </si>
+  <si>
+    <t>@mandyeol @weareoneexo novo endereço 선유로248-13 
+coffee time: 07:30am - 2:30pm
+beer time: 6:30pm - 11:30pm</t>
+  </si>
+  <si>
+    <t>@coffee___hunter nem cara ,corta pra fazer croquete</t>
+  </si>
+  <si>
+    <t>como sempre o client da @riotgamesbrasil se demonstra cada dia que passa que e um excelente client novamente com os bugs do chat.
+ta de parabéns ae a equipe.</t>
+  </si>
+  <si>
+    <t>@neman_coffee @eyshlav é por que eu comi feijão tropeiro 😔👍</t>
+  </si>
+  <si>
+    <t>⌕ coffee and vanilla (2019)
+      ★★☆☆☆
+－ só assisti pelo dori sakaruda; romance e enredo foi mal elaborado; o ship que não se concretizou em good morning call se encontra aqui; https://t.co/equjx9yva7</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 aprendeu com o mestre né? kkk</t>
+  </si>
+  <si>
+    <t>meu maior medo era me torna uma pessoa abusiva e tóxica, depois de ter vivido com isso em relacionamentos e amizades eu ficava com medo de me torna igual a eles sabe. 
+e com o tempo "desenvolvi" essa voz da consciência, e tipo literalmente qualquer coisa ela já fala pra mim.</t>
+  </si>
+  <si>
+    <t>hmmm agora está bom para um lanche como almoço... queria eu poder fazer um pedido para mim mesmo. 🤤🍴 https://t.co/pgvuskldkn</t>
+  </si>
+  <si>
+    <t>com o calor no talo, vou poder voltar a saborear um favorito que se chama iced coffee.</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 estamos quites então ha</t>
+  </si>
+  <si>
+    <t>hora do café!!! ☕️❤️
+#canecaspersonalizadas #presente #coffee https://t.co/quqccxerly</t>
+  </si>
+  <si>
+    <t>⯯ redução preço / price reduced ⯯
+para venda restaurante/café vila nova de gaia
+https://t.co/dhn9qtcgpx
+sale rest./coffee shop vila nova de gaia
+https://t.co/jejsy9e0um https://t.co/ljhxcphwdf</t>
+  </si>
+  <si>
+    <t>@polado_2 @rah_coffee e requintes de crueldade</t>
+  </si>
+  <si>
+    <t>@taeseokloveu @coffee_lalisa parabéns 🎉🎈</t>
+  </si>
+  <si>
+    <t>@atsushx ah bom 
+to ótimo</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @brunode22555578 @farialimaelevat bicho, se os laudos eram falsos e a agência não foi atrás, ou cobraram propina ou não fizeram o trabalho de ir a campo fiscalizar. tão simples quanto isso.</t>
+  </si>
+  <si>
+    <t>@ahneverland ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/cv1dy75dim</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 para de rir da minha burrice</t>
+  </si>
+  <si>
+    <t>📽 | o documentário sobre 'coffee prince', da mbc, está previsto para ir ao ar em 24/09 e 01/10, e reunirá o elenco principal do drama. vocês estão prontos para ver #gongyoo, #yooneunhye, #leesunkyun, #chaejungan, #kimjaewook e #kimdongwook juntos novamente, 13 anos depois? https://t.co/cut6q9blcw</t>
+  </si>
+  <si>
+    <t>negativo do simpósio online: não tem coffee break 💔💔💔</t>
+  </si>
+  <si>
+    <t>eu fui abrir a minha porta e a manga da minha camisa ficou presa.-.</t>
+  </si>
+  <si>
+    <t>coffee break - casamento terminou com noiva ao soco com rival - https://t.co/zvb3uhe5jf https://t.co/pnbf8yye7e</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 realmente</t>
+  </si>
+  <si>
+    <t>passar anos lendo coffee shop aus até destilar a sua essência e escrever uma monografia intitulada o herói de mil lattes</t>
+  </si>
+  <si>
+    <t>quando eu estou muito nervosa com algo eu gosto de escutar coffee e just one day, parece que mesmo que por pouco tempo eu simplismente "esqueço" meus problemas e apenas curto o momento em que estou escutando essas músicas</t>
+  </si>
+  <si>
+    <t>tem uma plantinha ali!!! 💗💗💗
+•
+•
+•
+•
+•
+📷: @mamjunior93
+#stayhome #picture #vscocam #coffee #photography #assay #shotting #fashion #beautiful #photo #love #style #photooftheday #girl #cute #beauty #life #cool #shot #tb https://t.co/mot2clpkll</t>
+  </si>
+  <si>
+    <t>@uttsbaek e se o ten poder participar será que teremos a cup of coffee parte 3???</t>
+  </si>
+  <si>
+    <t>@coffee___hunter uhum</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 eu sei, mas to no ep 198 então to feliz</t>
+  </si>
+  <si>
+    <t>☆combo fexxta em ipanema meu amô☆ 
+(poderá alterar o mimo e a cerveja) https://t.co/irnymqdaj2</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu falei o meu</t>
+  </si>
+  <si>
+    <t>adicionei "coffee and vanilla" em minha grade https://t.co/ivetywh7ak #bancodeseries</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu sou do q não tem nenhum e sonha em ter todos ,_,</t>
+  </si>
+  <si>
+    <t>a regra de três trouxe amigos também, mas não precisava</t>
+  </si>
+  <si>
+    <t>como eu queria tá... https://t.co/8rpxvvniqf</t>
+  </si>
+  <si>
+    <t>@isabela_santos_ tá quanto o coffee paradaiso?</t>
+  </si>
+  <si>
+    <t>@rxblackheart_ xuxa</t>
+  </si>
+  <si>
+    <t>@moondded aaa essa skin e linda</t>
+  </si>
+  <si>
+    <t>momentos que senti vergonha de mim.
+tinha uma mina q sla eu era bem insegura com ela uma vez até xinguei ela, e tinha um certo ciúmes dela sabe, aí descobri que ela ajudou uma pessoa q iria me influenciar positivamente (mas no final acabou uma bosta).</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa obrigada ❤️</t>
+  </si>
+  <si>
+    <t>@coffee___hunter toma no seu cu vadia , croquete</t>
+  </si>
+  <si>
+    <t>muito bom dia terça-feira, 15/09 dia do cliente, obrigada por serem além de clientes, grandes amigos ☀️- e para comemorar, teremos 
+mimos, coffee break, coquetel, novidades... 
+📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/ybyu5e8hyp</t>
+  </si>
+  <si>
+    <t>escutando musica alta ate os timpanos estourarem e comessarem a sangrar 🥶</t>
+  </si>
+  <si>
+    <t>todo um povo iludidasso kakakak
+apoia os bagulho local seus pau no cu, bora pro coffee house. https://t.co/0zzjdbrkkt</t>
+  </si>
+  <si>
+    <t>lavoura
+https://t.co/e0zgjitu2q</t>
+  </si>
+  <si>
+    <t>provei the coffee hoje! achei bom, mas nunca voltaria la! nao compensou pra mim sair da minha casinha pra comprar mais uma vez! valeu a tentativa, mas achei meio agoado e fraco</t>
+  </si>
+  <si>
+    <t>@coffee_ahh felicidades🥺💕</t>
+  </si>
+  <si>
+    <t>@coffee___hunter calado otário e a porra do seu empanado que te deixa mais burro</t>
+  </si>
+  <si>
+    <t>minhanossa eu só percebi agora q o namorado da maju ta tocando no vídeo de "coffee" da tori kelly</t>
+  </si>
+  <si>
+    <t>eu encontrei a minha pessoa certa. você me faz tão feliz, não quero que isso acabe nunca. obrigada por me cuidar tanto. te amo ❤️
+"you're the coffee that i need in the morning"
+"the life is a movie, you're the best part" https://t.co/8tn7snwubs</t>
+  </si>
+  <si>
+    <t>um licor brazeiro, com uma obra-prima de antonio vivaldi e técnicas de rembrandt. é arte e cultura. é licor brazeiro, mais do que você imagina.
+#cafe #coffee #cream #rembrandt #antoniovivaldi #licores https://t.co/dext3wxt0d</t>
+  </si>
+  <si>
+    <t>@shotosoftly lendária</t>
+  </si>
+  <si>
+    <t>só queria jogar fall guys no console</t>
+  </si>
+  <si>
+    <t>@armandrops qual comida tá com tuberculose? 
+coffee</t>
+  </si>
+  <si>
+    <t>@coups_coffee bagosss</t>
+  </si>
+  <si>
+    <t>@aqueledonato batata fenomenal eu imploro vai ouvir o podcast coffee break french eu aprendo muito</t>
+  </si>
+  <si>
+    <t>essa aula grita por um coffee break</t>
+  </si>
+  <si>
+    <t>✵ᑭeᗪiᗪo✵: combo cruela de vil
+»⋆ꭰꭼ: mel
+»⋆ꮲꭺꮢꭺ: @apotter_malfoy 
+"com muito amor e carinho para a pessoa mais linda e especial desse mundo e que as vezes é malvadinha também kkk te amo💖😘" https://t.co/0nbwyjmchs</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 meu? 
+meu time?</t>
+  </si>
+  <si>
+    <t>@tensoblog da demora ao passar o café? alias, ja passamos um little coffee hoje?</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 nem tanto</t>
+  </si>
+  <si>
+    <t>falta quantos anos pra vcs fazerem 18 ???</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 ata kkkk
+pô, ficou aceitável o nome da mágica kk
+melhor que o meuಠ_ಠ</t>
+  </si>
+  <si>
+    <t>duas paixões... 
+duas coisas que me anestesia ✨❤️
+.
+.
+.
+.
+#fotografia #foto #fotostumblr #feedorganizado #feed #feedfeed #feedmusic #violão #coffee #cafe #café #feelfreefeed #fé #fire #god #godisgood https://t.co/akbpbsdwvf</t>
+  </si>
+  <si>
+    <t>@coffee___hunter a gente tem quase o mesmo sobrenome</t>
+  </si>
+  <si>
+    <t>@prinbruce como assim?</t>
+  </si>
+  <si>
+    <t>@larissafariam7 eu queria um i9 9900k coffee lake e uma rtx 2080 mas uma foto de uma bela raba dm pode me animar!</t>
+  </si>
+  <si>
+    <t>@_btsarmmy_ siim aaaa kkkkkk 
+esqueci até de adicionar coffee e ma city</t>
+  </si>
+  <si>
+    <t>@bizz_coffee eu ignoro os flerte qnd n to afim kkkk</t>
+  </si>
+  <si>
+    <t>@coffee___hunter calado babaca do empanado</t>
+  </si>
+  <si>
+    <t>@neman_coffee uai faz parte ✌️😗</t>
+  </si>
+  <si>
+    <t>@coffee_off_ pq mô?</t>
+  </si>
+  <si>
+    <t>porra sdds califórnia coffee viu</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 teu cu
+kkkkkk</t>
+  </si>
+  <si>
+    <t>@pablospyer é pra comemorar?</t>
+  </si>
+  <si>
+    <t>@coffee___hunter gosto dos dois mas sou team xbox graças ao bom e velho gears of war</t>
+  </si>
+  <si>
+    <t>@coffee___hunter sevlaçnog,e meio merda eu sei</t>
+  </si>
+  <si>
+    <t>@leticiaverzab e ja sinto falta do coffee break</t>
+  </si>
+  <si>
+    <t>@bizz_coffee não seria melhor um cara que alem de te dar atenção jogasse com você ?</t>
+  </si>
+  <si>
+    <t>@andzrson coffee day sim!!! não da pra esquecer</t>
+  </si>
+  <si>
+    <t>@bizz_coffee só falar com uns diaszinhos de antecedência que eu me organizo! a gente pode se planejar por discord se quiserem</t>
+  </si>
+  <si>
+    <t>jurei que meu notebook ia explodir</t>
+  </si>
+  <si>
+    <t>@coffee___hunter tá perdendo muito</t>
+  </si>
+  <si>
+    <t>comecei a seguir o insta da the coffee só pra passar vontade todo dia</t>
+  </si>
+  <si>
+    <t>@dekdsimp a mimir, a mimir</t>
+  </si>
+  <si>
+    <t>@ricardo_smota @farialimaelevat não está alocando mal. está ficando com os melhores. se a iniciativa privada fosse boa, pq prestar estudar e prestar concurso?</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 agora não tem pa onde escapá</t>
+  </si>
+  <si>
+    <t>📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
+e para comemorar o dia do cliente ...
+mimos, brindes, coffee break, coquetel, novidades... 
+✖️ 📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/knkv0ub0hx</t>
+  </si>
+  <si>
+    <t>krl dunada td mundo fica chato mp</t>
+  </si>
+  <si>
+    <t>quase 4h da manhã e ligada no 220 the coffee não conte cmg pra nada</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa nenhum infelizmente...</t>
+  </si>
+  <si>
+    <t>@bizz_coffee aguenta coraçãoooo! 🤭</t>
+  </si>
+  <si>
+    <t>@dizz13y eu tbm, mas tenho um ps4
+emfim, a hipocrisia</t>
+  </si>
+  <si>
+    <t>@caioteixeirade3 @farialimaelevat isso. melhor produzir e ser responsável por acidentes ambientais monumentais.
+lucro a qq custo, inclusive de 500 vidas humanas.</t>
+  </si>
+  <si>
+    <t>bom dia! #coffee #coffeelover #coffeetime #bomdia #goodmorning https://t.co/qq3se8geeq</t>
+  </si>
+  <si>
+    <t>@tallipes @tododiagostosa @nanda_disus o mlk é porra de um rato</t>
+  </si>
+  <si>
+    <t>@hash_coffee abacho.</t>
+  </si>
+  <si>
+    <t>{\__/}
+( • . •)
+/ &amp;gt;🌍 quer meu mundo?
+ {\__/}
+( • - •)
+🌍&amp;lt; \  desculpa, mas não posso te dar o pollux https://t.co/cy8s2phf8o</t>
+  </si>
+  <si>
+    <t>@_l4rissa quero um coffee de preferência</t>
+  </si>
+  <si>
+    <t>saudades de treinamento presencial com coffee break</t>
+  </si>
+  <si>
+    <t>✵ᑭeᗪiᗪo✵: combo fexxta em ipanema meu amô
+»⋆ꭰꭼ: @apotter_malfoy
+»⋆ꮲꭺꮢꭺ: @totalteioso
+"para o meu não bebê, que fique mais feliz maninho 💖" https://t.co/dguqkniipf</t>
+  </si>
+  <si>
+    <t>preguntas vergas jahdjfn</t>
+  </si>
+  <si>
+    <t>@jadenhosslerbr q cabelo é esse</t>
+  </si>
+  <si>
+    <t>@vintageculture @alokoficial @faulhabermusic só falta a “coffee” na versão esperada</t>
+  </si>
+  <si>
+    <t>@lndlanamassara ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/hdou9hy9ik</t>
+  </si>
+  <si>
+    <t>@sfc_oliviar só agora notei que fiz o convite sem sequer dizer onde trabalho. eu sou barista na so! coffee, aparece lá que preparo um café especial pra você.</t>
+  </si>
+  <si>
+    <t>abertas as inscrições para o coffee of the year brasil 2020 (#coy). concurso reúne os melhores ☕️ cafés do país e elege os grandes destaques do ano. 
+os 🥇🥈🥉🏆campeões serão conhecidos na #sic digital, no dia 20 de novembro. 
+quer saber mais? acesse: https://t.co/w1bjj5mnpl https://t.co/wjhkuwnzgn</t>
+  </si>
+  <si>
+    <t>@lucas_k_c kkkkkkkk 
+kd o coffee break????? como assim não vai ter?</t>
+  </si>
+  <si>
+    <t>@mar_chikita oleee aaa</t>
+  </si>
+  <si>
+    <t>@coffee_strange @spacebooksbr mano kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>pd ser q eu de o fds pra td, do block vazo n falo mais nda</t>
+  </si>
+  <si>
+    <t>@bich1nha n tenho favorita mas to viciada em the coffee song(frank sinatra)</t>
+  </si>
+  <si>
+    <t>@l_l4dy nunca me chama pra jogar</t>
+  </si>
+  <si>
+    <t>todo mundo escondendo o sorriso do rosto pela aula vaga</t>
+  </si>
+  <si>
+    <t>não sei o que a vida quer de mim, durmo tarde acordo ruim, durmo cedo acordo acabado.</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 @coffee___hunter joga bem?</t>
+  </si>
+  <si>
+    <t>@coffee___hunter tá me que arco ?</t>
+  </si>
+  <si>
+    <t>@flamexllsxz mds pq n responde o mlk no msm dia kakakakak tadin</t>
+  </si>
+  <si>
+    <t>@neman_coffee @kayky89219987 ah desculpa ent 
+é pq eu tenho q aceitar calada oq ele falou né</t>
+  </si>
+  <si>
+    <t>@coffee___hunter kkkkkkkkkkk em nome do croquete vou esmagar sua cara</t>
+  </si>
+  <si>
+    <t>129º curso de barista de brasília
+• sábado, 26/0920, das 9h às 17h (teoria e prática)
+: https://t.co/7tylbgr7ry 
+info: +55.61.999717349 - antonello@monardo.com.br
+#monardooficial #monardo #café #caffé #coffee #coffeelover #coffeelovers #italia #cappuccino #barista #cursobarista https://t.co/mezx9isrqa</t>
+  </si>
+  <si>
+    <t>black cave coffee ✅
+academia ✅
+correr com jake ✅
+banho gelado ✅
+meditação ✅
+500ml de água ✅
+⏱11:00 
+o que você fez hoje?</t>
+  </si>
+  <si>
+    <t>@kayky89219987 @eyshlav você tá sendo mais podre ainda mano.</t>
+  </si>
+  <si>
+    <t>@coffee___hunter henrique kkkkkkkkk , leirbag esse é o meu</t>
+  </si>
+  <si>
+    <t>@spacebooksbr @coffee_strange aguenta mais um</t>
+  </si>
+  <si>
+    <t>@coffee___hunter nem cara croquete</t>
+  </si>
+  <si>
+    <t>ps. ao som de black coffee pra ficar melhor</t>
+  </si>
+  <si>
+    <t>@pincesodosenpai ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/6ylzuriqfs</t>
+  </si>
+  <si>
+    <t>acho que uma das minhas metas pro ano que vem vai ser começar a investir em cosplays. 
+serio e algo que eu sempre quis "trabalha" um dos motivos de eu querer tanto aprende a costurar.</t>
+  </si>
+  <si>
+    <t>entendam, o sérgio só se posiciona pra fazer marketing pra si próprio. sempre deixa 100% das decisões pro diretor de futebol. deu total liberdade pra alexandre tadeu, marques(primeira vez na vida nesse cargo), rui costa e agr o mattos, ele nunca deve ter se oposto a nada de campo</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 @coffee___hunter você também não ué</t>
+  </si>
+  <si>
+    <t>@iukethief @disneygrlove - comigo</t>
+  </si>
+  <si>
+    <t>@luciferinnc cigarretes and coffee? eu adoro aquele filme iuahsiuahs</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 escolhe o certo por favor</t>
+  </si>
+  <si>
+    <t>a outra coisa se vc usa desculpa de algum distúrbio mental como depressão etc pra ser um total escroto desejo meus mais sinceros vai toma no cu. 
+vai procura um psicólogo e se trata ninguém e obrigado aguentar vc sendo um pau no c* com os outros.</t>
+  </si>
+  <si>
+    <t>@fabsfurttado @weareoneexo novo endereço 선유로248-13 
+coffee time: 07:30am - 2:30pm
+beer time: 6:30pm - 11:30pm</t>
+  </si>
+  <si>
+    <t>@lolizinha_juh demorei</t>
+  </si>
+  <si>
+    <t>coffee dates são tão bons :)))</t>
+  </si>
+  <si>
+    <t>@moondded riot fez uma pra deus vê e me deu uma da ahri tenho 3 contas e ela só tinha me dado skin da ahri 1 vez, o boneco tem 12 skins e ela nunca me deus mais de 1 skin dela ;--;</t>
+  </si>
+  <si>
+    <t>segundo dia no uruguai, fui em um coffee break de maconha, troquei altas ideias com o "cebola", e ganhei umas bud, 💪🏻💪🏻💪🏻.</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @brunode22555578 @farialimaelevat "ideologicamente falsos"?
+que droga é essa que você fumou? laudo é técnico e, ou diz o que tem ou mente. não tem "ideologia" nenhuma. não existe laudo materialmente verdadeiro e falso. ou é falso ou não é. é era materialmente falso.</t>
+  </si>
+  <si>
+    <t>opa odeio acabar o estágio e ir logo pra casa, e hoje não há coffee com nng 🥺</t>
+  </si>
+  <si>
+    <t>coffee é perfeita vei</t>
+  </si>
+  <si>
+    <t>foda de passar o dia todo travadão de ansiedade é que quando passa, eu quero fazer uma grande mudança na minha vida achando que vai resolver</t>
+  </si>
+  <si>
+    <t>@guk_vantae versátil</t>
+  </si>
+  <si>
+    <t>@salimmattarbr @leandroruschel o senhor acha justa a isenção fiscal a suas empresas de locação de veículos 🚗?</t>
+  </si>
+  <si>
+    <t>queria ter essa capacidade de fazer o mal pras pessoas e não ter remorso igual várias pessoas tem. eu fico vendo situações tipo mano como uma pessoa consegue fazer isso com outra. tudo bem que tipo tem pessoas que odiamos/desgostando por diversos motivos.</t>
+  </si>
+  <si>
+    <t>coffee ++ traz os melhores cafés super especiais do brasil para o mercado interno: loja… https://t.co/ojidnrhvp1</t>
+  </si>
+  <si>
+    <t>@farialimaelevat palmeiras</t>
+  </si>
+  <si>
+    <t>só queria viver num daqueles videos de rainy night coffee shop with jazz :(</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 o meu</t>
+  </si>
+  <si>
+    <t>@coffee___hunter o seu</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa -7 anos kkkkk</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu tb</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 vem tu desgraça, eu que não vou para essa lado obscuro</t>
+  </si>
+  <si>
+    <t>@fleursbear bloco dado https://t.co/mpppigcezi</t>
+  </si>
+  <si>
+    <t>@o_antagonista é um animal neoliberal fdp</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @farialimaelevat adivinha quem não reforçou a regulação ambiental duas vezes...</t>
+  </si>
+  <si>
+    <t>curioso que eu fiquei com preconceito com a expressão "coffee break" antes mesmo de saber o que era</t>
+  </si>
+  <si>
+    <t>o meus coffee breaks do trabalho be like https://t.co/u6uxfcrejg</t>
+  </si>
+  <si>
+    <t>@coffee___hunter então devido a altura meus bolsos sempre prendem na maçaneta, meus uniformes estão todos rasgados nos bolsos kkkm</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @farialimaelevat só estou dizendo que a empresa não é totalmente privada como insinuam e o setor tem uma regulamentação muito forte, quanto aos acidentes houve negligência/corrupção nas perícias por parte de agentes públicos.</t>
+  </si>
+  <si>
+    <t>@eyshlav @kayky89219987 poh, apenas um "fodase" é bom as vezes uai</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 mas os slimes são fofinhos não tem como fugir dessa</t>
+  </si>
+  <si>
+    <t>@b1tchs0n todos tem suas vantagens</t>
+  </si>
+  <si>
+    <t>q chato isso de congresso online, pagar pra assistir palestra sem a alma do evento que é o coffee break</t>
+  </si>
+  <si>
+    <t>"ah vai ter coffee break"
+vai a puta que te pariu</t>
+  </si>
+  <si>
+    <t>@coffee_ahh xuxita</t>
+  </si>
+  <si>
+    <t>quanto mais eu escuto blur mais eu me convenço que a única música boa deles é coffee and tv msm</t>
+  </si>
+  <si>
+    <t>já q eu acordei msm, vou levantar e tomar um coffee</t>
+  </si>
+  <si>
+    <t>*casamento romione*
+padre: se alguém tem algo contra essa união, fale agr ou cale-se pra sempre
+brown: *no fundo*: já peguei
+rony: o que-
+hermione: se pegasse direito tava no meu lugar
+luna: revelações
+george: kkkk ah não
+gina: pelo amor de deus
+george: eu gravei galera https://t.co/oq03teejuz</t>
+  </si>
+  <si>
+    <t>...não querer let's get some coffee. papitu não quer ser presidente de ninguem e de nada. 
+-pois é.
+-papitu...eles não param. ô meu deus. tsc...se papitu não quer ser alienado como eles, temos que respeitsr isso.
+-tambem acho.
+-obrigado papitu.</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 empanado
+croquete é ruim</t>
+  </si>
+  <si>
+    <t>@adriandduwu @coffee_ahh amigo fui al psicologo</t>
+  </si>
+  <si>
+    <t>@kingfalcom tu n entendeu e uma referência</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 corta pra fazer empanado</t>
+  </si>
+  <si>
+    <t>@cheol_coffee tu e 1 vampir ?!</t>
+  </si>
+  <si>
+    <t>@gbs_silvaa vem na mão</t>
+  </si>
+  <si>
+    <t>@coffee___hunter e a realidade,tem muito dessa merda na minha tml</t>
+  </si>
+  <si>
+    <t>ow eu mandei uma receita de iced coffee delícia p joão, se algm quiser saber me chama hehe @joaolucasmnk</t>
+  </si>
+  <si>
+    <t>sdds alegol https://t.co/bniz9xxm09</t>
+  </si>
+  <si>
+    <t>@coffee___hunter avlis
+eh...gostei até</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 acho que eu to mais burro</t>
+  </si>
+  <si>
+    <t>@velhosabujo @brunode22555578 @farialimaelevat os laudos eram ideologicamente falsos, não materialmente falsos. muito difícil descobrir a falsidade ideológica, pois são assinados por engenheiros (ir)responsáveis pelo que foi declarado.</t>
+  </si>
+  <si>
+    <t>não confio em quem não gosta de coffee, dimple, pied piper, whalien 52, 24/7 heaven, converse high, miss right, autumn leaves e 2!3!</t>
+  </si>
+  <si>
+    <t>@coffee___hunter não venha pro caminho certo hunter</t>
   </si>
   <si>
     <t>@diangelsnico ótimo post, sai com depressão</t>
   </si>
   <si>
-    <t>@sensemarcia @walking_coffee vem rir cmg</t>
-  </si>
-  <si>
-    <t>rt @claraafurini: -oi gata manda foto do yoni 😈
--tá 😳 https://t.co/mlxfmb5zv7</t>
-  </si>
-  <si>
-    <t>como tá o yoni de vcs https://t.co/4vrj2xyywh</t>
-  </si>
-  <si>
-    <t>@walking_coffee amei</t>
-  </si>
-  <si>
-    <t>não confio em quem não gosta de coffee, dimple, pied piper, whalien 52, 24/7 heaven, converse high, miss right, autumn leaves e 2!3!</t>
+    <t>mais uma adepta de coffee in the morning está entre nós hahha</t>
+  </si>
+  <si>
+    <t>@diogofilipe12 muito mesmo!!! ultimamente só penso em iced coffee e café com leite :( já pensei em beber descafeinado mas disseram me que não faz mt bem (?) :/</t>
+  </si>
+  <si>
+    <t>a noite esfriou, um chocolate quente seria bom agora. https://t.co/qvuna40u1u</t>
+  </si>
+  <si>
+    <t>e não vou dizer que não tenho nem uma atitude tóxica, pq eu tenho, todo mundo tem, só que eu tento muda elas evitar ou corrigir caso eu tenha elas sabe.
+aí eu vejo gente que sla destrata namorada, destrata amigo, destrata família eu fico (???)</t>
+  </si>
+  <si>
+    <t>@shitposterlxz @coffee_off_ não kakak</t>
+  </si>
+  <si>
+    <t>vou ouvir coffee☕️🍪</t>
+  </si>
+  <si>
+    <t>@the__coffee roi, você é stan de tua e ouat, como que a gente nunca se falou antes???</t>
+  </si>
+  <si>
+    <t>ㅤ
+ㅤㅤ♥︎ . . .  hey! sabiam que meu grupo tem um combo na meyer coffee? ajuda bastante a divulgar a gente mas ultimamente as pessoas não tem pedido... então se vocês puderem pedir o combo orbit eu ia ficar bem feliz! os atendentes de lá são incríveis, vocês vão amar 🥺</t>
+  </si>
+  <si>
+    <t>@coffee___hunter toma no seu cu estão</t>
+  </si>
+  <si>
+    <t>fui ver o primeiro episódio de coffee prince para minha 2° maratona antiguinhos e não gostei. tô pensando em trocar para secret garden</t>
+  </si>
+  <si>
+    <t>@coffee___hunter nenhum</t>
+  </si>
+  <si>
+    <t>@coffee___hunter e um dia que aconteceu isso comigo e eu entortei o trinco da portakkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa daqui 7 anos</t>
   </si>
   <si>
     <t>@coffee___hunter dificil</t>
   </si>
   <si>
-    <t>@denny__boo @coffee___hunter ótimo gosto cara</t>
-  </si>
-  <si>
-    <t>rt @coffee_lalisa: falta quantos anos pra vcs fazerem 18 ???</t>
+    <t>aqui em casa me chamam de estressadinha
+mas eles nunca viram meu irmão bravo com algo
+ele quebra esse algo
+sacas?
+hoje ele jogou uma pedra no carro de um fdp que fez uma merda fodida há uns 2 anos atrás pra ex dele</t>
+  </si>
+  <si>
+    <t>@fullmetalgonza @z0elina @hash_coffee de nada</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 foi pego</t>
+  </si>
+  <si>
+    <t>@lcmbarros problema agora é inflação. não tem demanda pra tesouro selic!</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>@joh4chan @finizituslol e só n é mais gay que eu falando a coffee, enfim, todo mundo é gay</t>
+  </si>
+  <si>
+    <t>@c_abg @lana_juno bora joga um dia em live 🥺
+que horário vc tá livre</t>
+  </si>
+  <si>
+    <t>@redragonbr minha meta</t>
+  </si>
+  <si>
+    <t>@woahdejun eu quero o “a cup of coffee pt.3” pra ontem!!!!</t>
+  </si>
+  <si>
+    <t>fico igual pinto no lixo quando me chamam p um coffee break 
+tem coisa melhor não</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @brunode22555578 @farialimaelevat existe uma agência de mineração no brasil que tinha que pegar a análise e conferir. é função dela inclusive.
+em tempo: enquanto era estatal, também foi responsável por vários acidentes tb, inclusive a barragem mal feita de mariana é daquela época.</t>
+  </si>
+  <si>
+    <t>@coffee_off_ pq ele me ignorou por meses 😔</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 mentiroso nada, só estou tentando te mostrar que esse caminho de croquetes não é bom... venha... venha beast... para o caminho dos empanados</t>
+  </si>
+  <si>
+    <t>@dekdsimp igñskdñalksñsjsk💕❣️💖💝💖💗💓💖💝💓💗💖💗💖💝💓</t>
+  </si>
+  <si>
+    <t>@taeseokloveu parabéns 👏🎉♥️</t>
+  </si>
+  <si>
+    <t>@coffee___hunter isso acontece direto com o meu jaleco de manga curta no trabalho kkkkkkk</t>
+  </si>
+  <si>
+    <t>café do brasil 
+https://t.co/npan73marm</t>
+  </si>
+  <si>
+    <t>tb a cuando tomábamos iced coffee 24/7 @andreaclpadilla</t>
+  </si>
+  <si>
+    <t>@_gnominho_ ainda mais com a músiquinha do jogo</t>
+  </si>
+  <si>
+    <t>@sugary_coffee @tododiagostosa @nanda_disus elogia minha mulher né</t>
+  </si>
+  <si>
+    <t>@prinbruce nao mds, só foi engraçado</t>
+  </si>
+  <si>
+    <t>@coffee___hunter mentiroso ,fizeram uma lavagem cerebral em vc cara</t>
+  </si>
+  <si>
+    <t>🥰⚡️terça-feira, 15/09 dia do cliente, obrigada por serem além de clientes, grandes amigos ☀️- e para comemorar, teremos 
+mimos, coffee break, coquetel, novidades... 
+📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/dgrk13gls3</t>
+  </si>
+  <si>
+    <t>@ferro_coffee @farialimaelevat vale é paraestatal animal.</t>
+  </si>
+  <si>
+    <t>meu deus o problema que o designer tem em usar palavras em português
+a pessoa no podcast falando sobre um livro e dizendo "realmente esse não é um livro de coffee table"
+mano mesa de cafeeeee
+q flow cara fala fluxo</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 acho que a maioria tem esse sentimento, eu tbm</t>
+  </si>
+  <si>
+    <t>vamo de english class tomando meu bom coffee. 
+já que money que é good nós não have
+o nosso work é ser teacher</t>
+  </si>
+  <si>
+    <t>@moneymalvadao @coffee___hunter razoávelmente</t>
+  </si>
+  <si>
+    <t>per dó na me</t>
+  </si>
+  <si>
+    <t>@jrzexnik ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/c5ectzcwqd</t>
+  </si>
+  <si>
+    <t>vocês são mais time playstation ou xbox?</t>
+  </si>
+  <si>
+    <t>mas tipo já vi desconhecido fazendo mal pra uma pessoa ou até "amigo" e a pessoa faz várias vezes, tipo ela não se arrepende ela não tem aquela voz da razão/sensk que era pra todos terem.</t>
+  </si>
+  <si>
+    <t>@coffee___hunter eu rio quanto eu quiser em nome do croquete</t>
+  </si>
+  <si>
+    <t>@jxhnny_coffee tu sais que crea e fragile eft</t>
+  </si>
+  <si>
+    <t>meu deus, to me sentindo com 15 anos dnv, não consigo parar d olhar esses vídeos do aidan super teengirl apaixonadinha 
+alguém me ajuda pelamorddeus https://t.co/4yjm1irrkg</t>
+  </si>
+  <si>
+    <t>@kayky89219987 @neman_coffee menino primeiro vc nem me conhece pra tá me chamando de vadia 🙄 
+se alguém te falou alguma merda e vc n me conhece n venha me julgando sem me conhecer 🙄</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 ótimo, nem queria você mesmo no meu time, hmph!</t>
+  </si>
+  <si>
+    <t>respondendo perguntas e curiosidades sobre cada um e depois aproveitamos para bater um papo mais próximo e descontraído acompanhado de coffee break. esse evento está sendo pensado para ser itinerante, então quem sabe seu instituto não receberá um encontecs no futuro? +</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa eu ja tenho...</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 anem kkkk</t>
+  </si>
+  <si>
+    <t>@joaomarc00 nossa nenhum dos que eu uso é amadeirado, gosto do 212 e do coffee da boticario, tbm tenho dois q não são tão conhecidos mas são bons que é o vênus da bortoletto e o san junipero da l’envie, mas é tudo mais pro floral/fresco/cítrico, sei explicar mto não kkkkk</t>
+  </si>
+  <si>
+    <t>finalmente estou desenhando de volta</t>
+  </si>
+  <si>
+    <t>♡ combo vilões da disney (mama gothel) ♡
+(pode alterar o presente) https://t.co/ltlqxa692z</t>
+  </si>
+  <si>
+    <t>@coffee___hunter não acredito, tu curte gears mano!!</t>
+  </si>
+  <si>
+    <t>energia ruim nois tem de monte 🥶</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 @moneymalvadao poxa, mas wow é legal</t>
+  </si>
+  <si>
+    <t>@adriandduwu @dekdsimp ay no, se va a emputar más jadjsksjaf</t>
+  </si>
+  <si>
+    <t>@coffee_off_ @amandan79313929 vocês namoram ?</t>
+  </si>
+  <si>
+    <t>@kayky89219987 @eyshlav claro, e eu sou o batman</t>
+  </si>
+  <si>
+    <t>@coffee___hunter ahh, tadinho</t>
+  </si>
+  <si>
+    <t>puto por ser uma pessoa gente boa e achar que todo mundo é também.</t>
+  </si>
+  <si>
+    <t>@coffee___hunter só do time q joga qualquer um ks</t>
+  </si>
+  <si>
+    <t>@radaronline virou piada isso aí</t>
+  </si>
+  <si>
+    <t>@samesjc acho que coffee prince e hana yori dango são os doramas que pode passar 20 anos eu vou continuar reassistindo ❤️</t>
+  </si>
+  <si>
+    <t>precisamos mais café sirkel☕️☕️☕️ #cafe #coffee #sirkel #cafesirkel #sirkelcoffee #serranegra em serra negra, sao paulo, brazil https://t.co/o3lj57halg</t>
+  </si>
+  <si>
+    <t>se tem uma coisa que eu sou apaixonada é café! amo aquela pausa no fim da tarde para um cafezinho, admirando a paisagem 🌊🌞🏡 
+quem mais tb é assim? ama café como eu! diz pra mim 👇🏻☕️
+#frases #danifontenelle #café #coffee #cafeteria #apaixonadaporcafe #apaixonadaporcafé https://t.co/6ktpdgzros</t>
+  </si>
+  <si>
+    <t>@salonlinebrasil já tô esperando agr</t>
+  </si>
+  <si>
+    <t>faz cmg https://t.co/3cokicwtnb</t>
+  </si>
+  <si>
+    <t>queria o seq sendo presencial com aquele coffee break, vários "docin" de leite</t>
+  </si>
+  <si>
+    <t>e se eu abrisse uma sala de among amanhã? 🤔</t>
+  </si>
+  <si>
+    <t>📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
+e para comemorar o dia do cliente ...
+mimos, brindes, coffee break, coquetel, novidades... 
+✖️ 📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/fvxdae5phq</t>
+  </si>
+  <si>
+    <t>@lcmbarros vivas ao estado 🚂 puxando a economia ! 👏🏼👏🏼👏🏼👏🏼</t>
+  </si>
+  <si>
+    <t>@coffee_strange @spacebooksbr boraa</t>
+  </si>
+  <si>
+    <t>@tnndark saudades dos congressos academicos da unifesp com coffee break kkkk</t>
+  </si>
+  <si>
+    <t>@coffee___hunter @sharkhammer99 ele ainda será convertido!</t>
+  </si>
+  <si>
+    <t>é oficial: hoje, me torno parte de um time de café especialidade em dublin. shoe lane coffee é o primeiro lugar que me dá a oportunidade de trabalhar com o que eu amo!!!</t>
+  </si>
+  <si>
+    <t>@annemsudre vou ter que me esforçar muito pra ter a melhor mamada 😔✊</t>
+  </si>
+  <si>
+    <t>@eyshlav @neman_coffee mas é uma vadia mesmo em</t>
   </si>
   <si>
     <t>@yukiuchx ai sim kkk</t>
   </si>
   <si>
-    <t>@hash_coffee abacho.</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 ata, achei que tinha sido você</t>
-  </si>
-  <si>
-    <t>coffee é perfeita vei</t>
-  </si>
-  <si>
-    <t>e a padaria que abriu aqui do lado da ufu que é padaria e distribuidora de bebidas e chama coffee breja</t>
+    <t>eu aceito o thiago neves se ele vir sem receber salário e pagando 3 mil reais pra cada torcedor do atlético por mês e nunca vestir a camisa do clube</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 toma banho e depois dorme</t>
+  </si>
+  <si>
+    <t>se o nct 2020 for verdade eu só quero um a cup of coffee parte 3 senhor será que é pedir demais</t>
+  </si>
+  <si>
+    <t>môge....! [_]) #coffee ;-) https://t.co/3rjjjwgxip</t>
+  </si>
+  <si>
+    <t>escuta coffee = boiola</t>
+  </si>
+  <si>
+    <t>vou tentar fazer aquele dalgona coffee se der certo mando foros</t>
+  </si>
+  <si>
+    <t>@moneymalvadao @coffee___hunter concordo</t>
+  </si>
+  <si>
+    <t>eu fui na convenção do pcdob esse domingo e tinha gente la que foi so pq tinha coffee break e era a unica comida q eles iam comer no dia
+enquanto isso tem gente q tem tanto dinheiro q tem app de celular pra abrir a cortina da suite master da sua casa
+o mundo é uma bosta</t>
+  </si>
+  <si>
+    <t>#appleevent me lembra os meus tempos de one coffee da vez que aquele lugar simplesmente abarrotou  de gente pra tomar café em frente a um telão quando lançaram o iphone 8 🗣</t>
+  </si>
+  <si>
+    <t>@amandan79313929 @coffee_off_ ah tá</t>
+  </si>
+  <si>
+    <t>@arcyzawys @the__coffee aqui fica assim↑</t>
+  </si>
+  <si>
+    <t>fazer aquele coffee para não parar as atividades.</t>
+  </si>
+  <si>
+    <t>@gukk1994line mano,todas as músicas são boas,mas tem algumas que eu não curto. 13450,coffee,respect....</t>
+  </si>
+  <si>
+    <t>@coffee___hunter o meu também</t>
+  </si>
+  <si>
+    <t>@joaoquirino1 por você eu até aprendo beber 
+coffee sem sugar
+boa noite meu príncipe ❤️🙌☕🥐🥐☕</t>
+  </si>
+  <si>
+    <t>@coffee___hunter tbm não queria vc no meu</t>
+  </si>
+  <si>
+    <t>se de alguem der mais q 50% eu pago uma cerveja
+compare music tastes with me ✨! https://t.co/8lp8sshqjo #musictaste</t>
+  </si>
+  <si>
+    <t>@coffee___hunter @moneymalvadao hunter tu não sabe nem joga lol</t>
+  </si>
+  <si>
+    <t>coisas inúteis sobre mim
+altura — 1,58
+idade — 17
+tamanho do pé — 37/38 
+signo — virgem
+tatuagens — 0
+piercing — 0 
+cor fav — preto e azul 
+série fav — sherlock
+animal fav — gato 
+comida fav ー parmegiana e sushi 
+bebida fav — suquinho de laranja hum
+jogo fav — sla mano my coffee https://t.co/hbjlfwtcvx</t>
+  </si>
+  <si>
+    <t>@coffee_jeonjk @coffee_lalisa obrigada ❤️</t>
+  </si>
+  <si>
+    <t>✵ᑭeᗪiᗪo✵: empadinhas + bolo de chocolate
+»⋆ꭰꭼ: @hgryffindorboy 
+»⋆ꮲꭺꮢꭺ: @mpotter_malfoy 
+"aqui 🥺❤" https://t.co/fxomnujb9t</t>
+  </si>
+  <si>
+    <t>@brunode22555578 @farialimaelevat paraestatal kkkkkkk</t>
+  </si>
+  <si>
+    <t>@coffee_ahh confirmo</t>
+  </si>
+  <si>
+    <t>@coffee___hunter team croquete enfia esse empanado no cu e gira</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 @coffee___hunter tu joga o que pra falar mau de mim?</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 bom saber, safado</t>
+  </si>
+  <si>
+    <t>@coffee_beller @kittenscor amooor, suco de laranja as por favor 🥺 tô com vontade</t>
+  </si>
+  <si>
+    <t>i've been craving coffee a lot lately mas deixei de beber há cerca de 2 anos :(</t>
+  </si>
+  <si>
+    <t>@coffee___hunter quem ?</t>
+  </si>
+  <si>
+    <t>@fernandoulrich @salimmattarbr @leandroruschel pergunte pro salim o que ele acha do benefício fiscal para as empresas dele, uma vez que compra carro com isenção de impostos, aluga e depois vende mais caro, como se tivesse recolhido os impostos normalmente. isso é liberalismo?</t>
   </si>
   <si>
     <t>coisas inúteis sobre mim
@@ -81,187 +1388,7 @@
 jogo fav — bisca https://t.co/jerlvkbiee</t>
   </si>
   <si>
-    <t>@lana_juno tudo bem vamos marca então 👉👈🥺</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 um slime fofinho</t>
-  </si>
-  <si>
-    <t>rt @vamonelson: fica aí a dica pros viajantes do tempo</t>
-  </si>
-  <si>
-    <t>@fleursbear bloco dado https://t.co/mpppigcezi</t>
-  </si>
-  <si>
-    <t>@adriandduwu nada
-/cry</t>
-  </si>
-  <si>
-    <t>@rgrpedro31 ai, ele só anda com os mais velhos :(
-ahsuhsush</t>
-  </si>
-  <si>
-    <t>@coffee___hunter @sharkhammer99 ele ainda será convertido!</t>
-  </si>
-  <si>
-    <t>como diria a filósofa rihanna.
-mete um homem.</t>
-  </si>
-  <si>
-    <t>krl dunada td mundo fica chato mp</t>
-  </si>
-  <si>
-    <t>@coffee___hunter sim ,eu conheço ele antes da fama</t>
-  </si>
-  <si>
-    <t>✵ᑭeᗪiᗪo✵: combo pequeno príncipe
-»⋆ꭰꭼ: três pontinhos
-»⋆ꮲꭺꮢꭺ: @kittenscor  
-"pra um meu gravidinho preferido ^w^" https://t.co/hboxyrru5r</t>
-  </si>
-  <si>
-    <t>@salonlinebrasil já tô esperando agr</t>
-  </si>
-  <si>
-    <t>@coffee___hunter eu falei o meu</t>
-  </si>
-  <si>
-    <t>rt @icretinoreal: eu com raiva https://t.co/dqknuefegq</t>
-  </si>
-  <si>
-    <t>meu deus o problema que o designer tem em usar palavras em português
-a pessoa no podcast falando sobre um livro e dizendo "realmente esse não é um livro de coffee table"
-mano mesa de cafeeeee
-q flow cara fala fluxo</t>
-  </si>
-  <si>
-    <t>fazer aquele coffee para não parar as atividades.</t>
-  </si>
-  <si>
-    <t>@ferro_coffee @brunode22555578 @farialimaelevat bicho, se os laudos eram falsos e a agência não foi atrás, ou cobraram propina ou não fizeram o trabalho de ir a campo fiscalizar. tão simples quanto isso.</t>
-  </si>
-  <si>
-    <t>rt @lcmbarros: lcmb: concordo com ele
-bloomberg 14/9
-a posição da equipe do ministro  paulo guedes, de simplesmente voltar ao teto de gasto…</t>
-  </si>
-  <si>
-    <t>@toxicojuan_ @dekdsimp @adriandduwu ahora entendí jasuahdjsjd</t>
-  </si>
-  <si>
-    <t>@coffee_jeonjk @coffee_lalisa obrigada ❤️</t>
-  </si>
-  <si>
-    <t>rt @tristheus: é impossivel ser contra a violencia no futebol quando o seu time quer contratar o thiago neves</t>
-  </si>
-  <si>
-    <t>@sh0ckgirl ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/guwoas92fc</t>
-  </si>
-  <si>
-    <t>@neman_coffee @eyshlav tá mais pra ser o tigrão daquela dlç</t>
-  </si>
-  <si>
-    <t>♡ combo vilões da disney (mama gothel) ♡
-(pode alterar o presente) https://t.co/ltlqxa692z</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 teu cu
-kkkkkk</t>
-  </si>
-  <si>
-    <t>rt @remolucius: alguém pra me mandar o combo hades e perséfone da júpiter coffee shop? 👉👈</t>
-  </si>
-  <si>
-    <t>@adriandduwu @coffee_ahh amigo fui al psicologo</t>
-  </si>
-  <si>
-    <t>rt @biancaisbean: só queria viver num daqueles videos de rainy night coffee shop with jazz :(</t>
-  </si>
-  <si>
-    <t>@eyshlav @kayky89219987 e a outra discute com criança</t>
-  </si>
-  <si>
-    <t>@coffee___hunter eu li errado kkkkk eu li nome o meu é bem grande então só vou pegar meu último sobrenome oriebir</t>
-  </si>
-  <si>
-    <t>rt @phmphmph: não é possível que alguém ainda consiga ouvir e gostar da música death bed (coffee for your head)</t>
-  </si>
-  <si>
-    <t>é oficial: hoje, me torno parte de um time de café especialidade em dublin. shoe lane coffee é o primeiro lugar que me dá a oportunidade de trabalhar com o que eu amo!!!</t>
-  </si>
-  <si>
-    <t>@kingfalcom tu n entendeu e uma referência</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 você nunca me vencerá, em nome do empano, eu declaro que você pegue o croquete e enfia no cu do meu primo junto com o 3ds
-'-'</t>
-  </si>
-  <si>
-    <t>@prinbruce @louvplace não precisa</t>
-  </si>
-  <si>
-    <t>môge....! [_]) #coffee ;-) https://t.co/3rjjjwgxip</t>
-  </si>
-  <si>
-    <t>rt @doutormaravilha: a sessão clínica da infectologia na hora do coffee-break 
-‘meu paciente da úlcera de buruli...’ https://t.co/mlpqfit9…</t>
-  </si>
-  <si>
-    <t>rt @fleuristie: ㅤ
-ㅤㅤ♥︎ . . .  hey! sabiam que meu grupo tem um combo na meyer coffee? ajuda bastante a divulgar a gente mas ultimamente as…</t>
-  </si>
-  <si>
-    <t>rt @danifialhoo: queria receber uma mensagem fofa, tipo: tenho uma vaga de emprego pra você</t>
-  </si>
-  <si>
-    <t>@ferro_coffee @brunode22555578 @farialimaelevat existe uma agência de mineração no brasil que tinha que pegar a análise e conferir. é função dela inclusive.
-em tempo: enquanto era estatal, também foi responsável por vários acidentes tb, inclusive a barragem mal feita de mariana é daquela época.</t>
-  </si>
-  <si>
-    <t>@coffee___hunter nem cara ,corta pra fazer croquete</t>
-  </si>
-  <si>
-    <t>jurei que meu notebook ia explodir</t>
-  </si>
-  <si>
-    <t>@luizxpotts "a música mais triste do ano" ela é linda de tão triste 
-"if the world was ending" "coffee"  essas duas vc deve conhecer . 
-boa sorte com a depressão amg 🙏 kkkk</t>
-  </si>
-  <si>
-    <t>rt @yodakjkj: os cara usa crocs https://t.co/tncmydzyy1</t>
-  </si>
-  <si>
-    <t>@brunapalma_ @virogowski1 @ocpiress @laurazlac 45 quando alguma tinha muito trabalho e precisava subir... depois tinha o coffee das 15h né, não podemos esquecer...</t>
-  </si>
-  <si>
-    <t>rt @mrspotter_13: tão querendo implantar uma crise que não existe no galo</t>
-  </si>
-  <si>
-    <t>que o café permaneça em vocês! bem vindos ao lado cafeinado da força! 
-.
-postado por nossa czlover @mariana_cunhaw junto de @guiferchers e @dougsoares15 - you can sleep when you're dead! drink coffee and work hard! ☕💪 https://t.co/0fkulbiayj</t>
-  </si>
-  <si>
-    <t>escuta coffee = boiola</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 anem kkkk</t>
-  </si>
-  <si>
-    <t>bebendo meu coffee e vendo as pessoas entrando num inferno existencialista</t>
-  </si>
-  <si>
-    <t>@coffee_lalisa estou fazendo hoje</t>
-  </si>
-  <si>
-    <t>vou tentar fazer aquele dalgona coffee se der certo mando foros</t>
-  </si>
-  <si>
-    <t>já q eu acordei msm, vou levantar e tomar um coffee</t>
-  </si>
-  <si>
-    <t>@lcmbarros problema agora é inflação. não tem demanda pra tesouro selic!</t>
+    <t>finalmente achei que tinha me livrado da regra de três, mas ela voltou</t>
   </si>
   <si>
     <t>a contagem regressiva começou...
@@ -271,580 +1398,328 @@
 #geek #nerd #lojageek #presentescriativos #lojasupergeek #eusousupergeek #piresdorio #estilogeek #geekbrasil #mundogeek #bomdia #cafe #coffee #queaforcaestejacomvoce #boracomeçar #contagemregressica #inauguracao #novaloja https://t.co/12as6mcc6r</t>
   </si>
   <si>
-    <t>e triste pq não e todo mundo que vai querer mudar esse pensamento e "acorda" a voz da razão.</t>
-  </si>
-  <si>
-    <t>@gbs_silvaa vem na mão</t>
-  </si>
-  <si>
-    <t>não sei o que a vida quer de mim, durmo tarde acordo ruim, durmo cedo acordo acabado.</t>
-  </si>
-  <si>
-    <t>rt @wolpes1: morrendo de vergonha porém toma ai
-drown - bring me the horizon
-(versão acustica e desafinada) irra https://t.co/ewusumew4g</t>
+    <t>@hotcakeschikit a pxa</t>
+  </si>
+  <si>
+    <t>@coffee___hunter n é só vc, é mt solitário jooojar sz ;-;</t>
+  </si>
+  <si>
+    <t>aqui está uma música para você… death bed (coffee for your head) de powfu
+https://t.co/czr7oe2xci</t>
+  </si>
+  <si>
+    <t>@bizz_coffee abandonada ou jogando dark souls?</t>
+  </si>
+  <si>
+    <t>@coffee_ahh xuxa</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 em nome do empano, eu esmagou a tua cara e ainda faça outra coisa que não consegui pensar, yeah</t>
+  </si>
+  <si>
+    <t>@deliiahbard não sei amg kkkkk
+o twitter é bem grande neh https://t.co/s2nhnleakr</t>
+  </si>
+  <si>
+    <t>@da_vici_ entao só se tem de combinar um coffee e tratasse disso</t>
+  </si>
+  <si>
+    <t>@coffee___hunter o trinco ficou uma merda, mas foi trocado 
+mas você está bem mesmo  né?</t>
+  </si>
+  <si>
+    <t>@coffee___hunter escolhe o meu não desse fdp</t>
+  </si>
+  <si>
+    <t>@coffee___hunter sim kkkkkk</t>
+  </si>
+  <si>
+    <t>@salimmattarbr @leandroruschel por que os liberais se socorrem ao estado sempre que há uma crise? pq pedem isenções fiscais e financiamentos a juro zero ?</t>
+  </si>
+  <si>
+    <t>@gijacopetti que pena né</t>
+  </si>
+  <si>
+    <t>@kayky89219987 @eyshlav unico kid aq sou eu porra</t>
+  </si>
+  <si>
+    <t>@cactussvante @fleursbear @offcialseokjiin @kwonjwm @detailsrosie @ismytoxicc @jhopecolorr @jenniemeretriz @colorsdery @guinhojk @lovelyminsuga93 @maffuyu_ @ssulkitw0 @taehyskyy @jnkpoesie obggg ami</t>
+  </si>
+  <si>
+    <t>{\__/}
+( • . •)
+/ &amp;gt;🌍 quer meu mundo?
+ {\__/}
+( • - •)
+🌍&amp;lt; \  desculpa, mas não posso te dar o lucas samos https://t.co/x8dxpl5j9a</t>
+  </si>
+  <si>
+    <t>@annwisex que o fandom de tua não fique tóxico
+que o fandom de tua não fique tóxico
+que o fandom de tua não fique tóxico
+que o fandom de tua não fique tóxico
+que o fandom de tua não fique tóxico
+que o fandom de tua não fique tóxico
+que o fandom de tua não fique tóxico</t>
+  </si>
+  <si>
+    <t>@lana_juno siim ótima ideia</t>
+  </si>
+  <si>
+    <t>@moneymalvadao @coffee___hunter fire emblem ,final fantasy tatics de gba e etc</t>
+  </si>
+  <si>
+    <t>@gukk1994line não é a pior, mas eu nunca gostei muito de coffee
+https://t.co/pcmhdenjck</t>
+  </si>
+  <si>
+    <t>@amandan79313929 pq vc n me atende moh</t>
+  </si>
+  <si>
+    <t>@apple_juice53 só por conta desse documentário q vai ter, agr eu quero assistir coffee prince kkkkkkk</t>
+  </si>
+  <si>
+    <t>@gouveialkika you can still enjoy a “fake cup of coffee”, mesmo q vás ao starbucks e peças alguma bebida mas em versão descafeinada, continuam a ser mt boas
+é uma questão de adaptação, eu só fico com saudades so sabor pq já me habituei à falta de cafeína</t>
+  </si>
+  <si>
+    <t>só queria um café...
+ #coffee #meh https://t.co/xsoikxvnp8</t>
+  </si>
+  <si>
+    <t>café nosso, de cada dia!! 
+#cafe #bomdia #goodmorning #coffee https://t.co/6t5ivbmlhx</t>
+  </si>
+  <si>
+    <t>@bizz_coffee não sei lidar com pessoas legais e interessantes falando cmgo, eu bugo</t>
+  </si>
+  <si>
+    <t>e a padaria que abriu aqui do lado da ufu que é padaria e distribuidora de bebidas e chama coffee breja</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 e sim é possível eu ficar mais burro</t>
+  </si>
+  <si>
+    <t>@lavininhaaaa o q vc fez com a sua cara velho?</t>
+  </si>
+  <si>
+    <t>@kingfalcom na mesma situação que ela</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 muita diferença mesmo</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 o teu?</t>
+  </si>
+  <si>
+    <t>que o café permaneça em vocês! bem vindos ao lado cafeinado da força! 
+.
+postado por nossa czlover @mariana_cunhaw junto de @guiferchers e @dougsoares15 - you can sleep when you're dead! drink coffee and work hard! ☕💪 https://t.co/0fkulbiayj</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 deixa meu sobrenome
+teu sobrenome é gabriel?!</t>
+  </si>
+  <si>
+    <t>bebendo meu coffee e vendo as pessoas entrando num inferno existencialista</t>
+  </si>
+  <si>
+    <t>i've been craving coffee a lot all the time mas deixei de beber desde janeiro porque ganhei palpitações e arritmias à pala dele :') https://t.co/zfqrzsbg0h</t>
+  </si>
+  <si>
+    <t>@coffee_m4rk mds q amor ficou mt bonitinho😳💞</t>
+  </si>
+  <si>
+    <t>ai quero assistir coffee prince agora.... https://t.co/w2mguxcsyd</t>
+  </si>
+  <si>
+    <t>@moneymalvadao @coffee___hunter eu jogo lol</t>
+  </si>
+  <si>
+    <t>sobrevivendo hj só com o pensamento que vou comer aquele donuts divino do 89° coffee com a taw</t>
+  </si>
+  <si>
+    <t>a sara foi ter comigo com donuts do coffee library, só mais uma prova de que é a melhor do mundo mt fácil</t>
+  </si>
+  <si>
+    <t>que coisa maravilhosa kkkkkkkm https://t.co/txrcvm02bm</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 @coffee___hunter tu jogava de mf e agora joga do que?</t>
+  </si>
+  <si>
+    <t>@kittenscor @_nooahjs você poderá mudar a cerveja para alguma bebida de sua preferência e que possa beber 💖💖 https://t.co/ra0ijthyck</t>
+  </si>
+  <si>
+    <t>@coffee___hunter nada</t>
+  </si>
+  <si>
+    <t>✵ᑭeᗪiᗪo✵: cupcakes
+»⋆ꭰꭼ: @hgryffindorboy 
+»⋆ꮲꭺꮢꭺ: @apotter_malfoy 
+"prontinho ^^" https://t.co/2xailu2b2b</t>
+  </si>
+  <si>
+    <t>@moneymalvadao @coffee___hunter fodasse ,wow tem assinatura logo ruim</t>
+  </si>
+  <si>
+    <t>gente, to apaixonada pelo @aidanrgallagher 
+será q é pedofilia? kkkkk</t>
+  </si>
+  <si>
+    <t>como diria a filósofa rihanna.
+mete um homem.</t>
+  </si>
+  <si>
+    <t>@lana_juno só por duvida vcs poderiam amanhã? ou muito em cima da hora</t>
+  </si>
+  <si>
+    <t>@bizz_coffee @lana_juno qnd vc quiser, é só me chamar</t>
+  </si>
+  <si>
+    <t>coffee de música de fundo 😭 https://t.co/prh1khz6xs</t>
+  </si>
+  <si>
+    <t>@ootakusadboy putz</t>
+  </si>
+  <si>
+    <t>fala assim cmg n q hj eu to na brisa</t>
+  </si>
+  <si>
+    <t>@_rafaa98 baza coffee? mete anúncio no twitter ver quem quer tomar café connosco</t>
+  </si>
+  <si>
+    <t>@vaitamara tenta fazer um dalgona coffee, é bem de boinas e combina com esse calor infernal</t>
+  </si>
+  <si>
+    <t>@coffee_off_ tu nem me ligou</t>
+  </si>
+  <si>
+    <t>sobre a vida:
+tá foda</t>
+  </si>
+  <si>
+    <t>@atsushx caraca kkkksksk nem
+eu quase cai, mas passo bem, só que tipo foi muito engraçado</t>
+  </si>
+  <si>
+    <t>noite quente boa para tomar um chá gelado para refrescar 🍵 https://t.co/ujx42qblqh</t>
   </si>
   <si>
     <t>@the__coffee @leotochahumana era pra ter ficado assim https://t.co/m5ff1piftr</t>
   </si>
   <si>
-    <t>coffee dates são tão bons :)))</t>
-  </si>
-  <si>
-    <t>@exilebabs vc assistiu coffee and vanilla? tem na netflix daqui e resolvi perguntar se vale a pena</t>
+    <t>@eyshlav @neman_coffee mau ela sabe oq a gente fez com aquelas 2 amigas dela kkj</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa estou fazendo hoje</t>
+  </si>
+  <si>
+    <t>@lana_juno tudo bem vamos marca então 👉👈🥺</t>
+  </si>
+  <si>
+    <t>@vinicius_coffee siiim todo mundo disfarçando</t>
+  </si>
+  <si>
+    <t>eu quero muito assistir. coffee prince tem um lugarzinho especial no meu coração de dorameira. https://t.co/nkze7eftrv</t>
+  </si>
+  <si>
+    <t>@dizz13y ficou muito legal, um dos melhores talvez</t>
+  </si>
+  <si>
+    <t>@coffee_lalisa saudades 💔</t>
+  </si>
+  <si>
+    <t>@galoinfo2 particularmente acho importante mostrar que sampaoli e mattos não são donos do clube</t>
+  </si>
+  <si>
+    <t>coffee prince é minha vida</t>
+  </si>
+  <si>
+    <t>o cast de coffee prince reunido meu deus ninguém me toca https://t.co/jluiald2gu</t>
+  </si>
+  <si>
+    <t>@eyshlav @kayky89219987 e a outra discute com criança</t>
+  </si>
+  <si>
+    <t>@softmilaaa negro.</t>
+  </si>
+  <si>
+    <t>coffee time... #coffeetime @ espaço baltoro - porto alegre https://t.co/9lqqjtmkoo</t>
+  </si>
+  <si>
+    <t>@carriet_ e uma droga ser assim ;--;</t>
+  </si>
+  <si>
+    <t>@velhosabujo @brunode22555578 @farialimaelevat ela conferiu, mas os dados dos laudos eram falsos. sabe como é na iniciativa privada. ...leva quem entrega o serviço ao gosto do freguês. se não entregar, contrata outro.</t>
+  </si>
+  <si>
+    <t>@moneymalvadao @coffee___hunter calado jogador de wow</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 mas é bom mesmo, tipo na vida real meus amigos acham que eu sou mó de boa, mas eu só sou um café mano</t>
+  </si>
+  <si>
+    <t>per do na me</t>
+  </si>
+  <si>
+    <t>@jadenhosslerbr @jadenhossler amém krl</t>
+  </si>
+  <si>
+    <t>@coffee___hunter kkkkkkkk e eu sou um slime</t>
+  </si>
+  <si>
+    <t>@00poemnj ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/z6c7gjl2sp</t>
+  </si>
+  <si>
+    <t>@kittenscor @coffee_beller aiaiai viiu</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 eu falei que é o meu</t>
+  </si>
+  <si>
+    <t>@sharkhammer99 pô mas rir em nome do croquete só te deixa mais fraco de tão ruim que é</t>
   </si>
   <si>
     <t>serah q eu sou expulso da escola se eu mandar td mundo a merda? tava qrendo fazer um bgl foda pra qnd eu vazar de la</t>
   </si>
   <si>
-    <t>@coffee___hunter n esperava q ficasse legal mas acabou ficando</t>
-  </si>
-  <si>
-    <t>@carriet_ e uma droga ser assim ;--;</t>
-  </si>
-  <si>
-    <t>@bich1nha n tenho favorita mas to viciada em the coffee song(frank sinatra)</t>
-  </si>
-  <si>
-    <t>vou ouvir coffee☕️🍪</t>
-  </si>
-  <si>
-    <t>eu quero muito assistir. coffee prince tem um lugarzinho especial no meu coração de dorameira. https://t.co/nkze7eftrv</t>
-  </si>
-  <si>
-    <t>como eu queria tá... https://t.co/8rpxvvniqf</t>
-  </si>
-  <si>
-    <t>curioso que eu fiquei com preconceito com a expressão "coffee break" antes mesmo de saber o que era</t>
-  </si>
-  <si>
-    <t>@coffee_off_ tu nem me ligou</t>
-  </si>
-  <si>
-    <t>lithium = obra de arte</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 acho que eu to mais burro</t>
-  </si>
-  <si>
-    <t>@neman_coffee @eyshlav é por que eu comi feijão tropeiro 😔👍</t>
-  </si>
-  <si>
-    <t>@taeseokloveu parabéns 👏🎉♥️</t>
-  </si>
-  <si>
-    <t>precisamos mais café sirkel☕️☕️☕️ #cafe #coffee #sirkel #cafesirkel #sirkelcoffee #serranegra em serra negra, sao paulo, brazil https://t.co/o3lj57halg</t>
-  </si>
-  <si>
-    <t>rt @moondded: a record acusando a globo de perseguição religiosa por causa da matéria sobre a corrupção na universal kkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>@coffee___hunter @sharkhammer99 ele sempre são cabeça dura mais eles mudam</t>
-  </si>
-  <si>
-    <t>a sessão clínica da infectologia na hora do coffee-break 
-‘meu paciente da úlcera de buruli...’ https://t.co/mlpqfit9sx</t>
+    <t>finalmente uma manhã mais fresca, não aguento todo esse calor.</t>
+  </si>
+  <si>
+    <t>@walking_coffee @aidanrgallagher kkkkkkkkkkk reflexões</t>
   </si>
   <si>
     <t>@carriet_ comigo na maioria das vezes e cara carente que confunde as coisas, muito triste</t>
   </si>
   <si>
-    <t>📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
-e para comemorar o dia do cliente ...
-mimos, brindes, coffee break, coquetel, novidades... 
-✖️ 📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/knkv0ub0hx</t>
-  </si>
-  <si>
-    <t>saudades de treinamento presencial com coffee break</t>
-  </si>
-  <si>
-    <t>@coffee___hunter o seu</t>
-  </si>
-  <si>
-    <t>📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
-e para comemorar o dia do cliente ...
-mimos, brindes, coffee break, coquetel, novidades... 
-✖️ 📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/fvxdae5phq</t>
-  </si>
-  <si>
-    <t>@coffee___hunter eu gosto mt de todos e ñ consigo escolher
-nintendo tem clássicos incríveis 
-xbox tem serviços ótimos e exclusivos bons
-a sony tem os melhores exclusivos dos três 
-pc tem os graphicos mais pika de todos
-e eu sofro por ser pobre</t>
-  </si>
-  <si>
-    <t>@coffee_strange @spacebooksbr boraa</t>
-  </si>
-  <si>
-    <t>rt @gllimbow: essa conta vai seguir o tt inteiro menos eu</t>
-  </si>
-  <si>
-    <t>@coffee___hunter kkkkkkkkkkk em nome do croquete vou esmagar sua cara</t>
-  </si>
-  <si>
-    <t>@bizz_coffee não sei lidar com pessoas legais e interessantes falando cmgo, eu bugo</t>
-  </si>
-  <si>
-    <t>rt @opmawa: eu gosto tanto dessa pessoa! é mt difícil lidar com a dor de ser magoada, seja por um amigo ou um crush. é mt difícil quando es…</t>
-  </si>
-  <si>
-    <t>@softmilaaa negro.</t>
-  </si>
-  <si>
-    <t>@farialimaelevat palmeiras</t>
-  </si>
-  <si>
-    <t>@coffee___hunter sim kkkkkk</t>
-  </si>
-  <si>
-    <t>@l_l4dy nunca me chama pra jogar</t>
-  </si>
-  <si>
-    <t>ㅤ
-ㅤㅤ♥︎ . . .  hey! sabiam que meu grupo tem um combo na meyer coffee? ajuda bastante a divulgar a gente mas ultimamente as pessoas não tem pedido... então se vocês puderem pedir o combo orbit eu ia ficar bem feliz! os atendentes de lá são incríveis, vocês vão amar 🥺</t>
-  </si>
-  <si>
-    <t>@lcmbarros vivas ao estado 🚂 puxando a economia ! 👏🏼👏🏼👏🏼👏🏼</t>
-  </si>
-  <si>
-    <t>rt @vanteksjnie: namjin au¡! ❬ the same coffee
-onde kim namjoon,um estudante de direito que sempre ia a mesma cafeteria,pedia o mesmo café…</t>
-  </si>
-  <si>
-    <t>o meus coffee breaks do trabalho be like https://t.co/u6uxfcrejg</t>
-  </si>
-  <si>
-    <t>@coffee_off_ meu cllr ta descarregando dps nois faz ta</t>
-  </si>
-  <si>
-    <t>adicionei "coffee and vanilla" em minha grade https://t.co/ivetywh7ak #bancodeseries</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 ih ala falou o carinha do croquete</t>
-  </si>
-  <si>
-    <t>...não querer let's get some coffee. papitu não quer ser presidente de ninguem e de nada. 
--pois é.
--papitu...eles não param. ô meu deus. tsc...se papitu não quer ser alienado como eles, temos que respeitsr isso.
--tambem acho.
--obrigado papitu.</t>
-  </si>
-  <si>
-    <t>coisas inúteis sobre mim
-altura — 1,58
-idade — 17
-tamanho do pé — 37/38 
-signo — virgem
-tatuagens — 0
-piercing — 0 
-cor fav — preto e azul 
-série fav — sherlock
-animal fav — gato 
-comida fav ー parmegiana e sushi 
-bebida fav — suquinho de laranja hum
-jogo fav — sla mano my coffee https://t.co/hbjlfwtcvx</t>
-  </si>
-  <si>
-    <t>contratação do thiago neves é realmente caso de assassinato no atlético. o responsável deve ser crucificado naquela cruz da praça do papa</t>
-  </si>
-  <si>
-    <t>bom dia! #coffee #coffeelover #coffeetime #bomdia #goodmorning https://t.co/qq3se8geeq</t>
-  </si>
-  <si>
-    <t>rt @besta_mor: meu deus o problema que o designer tem em usar palavras em português
-a pessoa no podcast falando sobre um livro e dizendo "r…</t>
-  </si>
-  <si>
-    <t>@bizz_coffee eu ignoro os flerte qnd n to afim kkkk</t>
-  </si>
-  <si>
-    <t>@lndlanamassara ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/hdou9hy9ik</t>
-  </si>
-  <si>
-    <t>@coffee___hunter o meu também</t>
-  </si>
-  <si>
-    <t>rt @robbe_n: segundo dia no uruguai, fui em um coffee break de maconha, troquei altas ideias com o "cebola", e ganhei umas bud, 💪🏻💪🏻💪🏻.</t>
-  </si>
-  <si>
-    <t>@coffee___hunter escolhe o meu não desse fdp</t>
-  </si>
-  <si>
-    <t>rt @lmalfoy: meu omega me mima, vou virar um alfa manhoso</t>
-  </si>
-  <si>
-    <t>só queria viver num daqueles videos de rainy night coffee shop with jazz :(</t>
-  </si>
-  <si>
-    <t>meu deus, to me sentindo com 15 anos dnv, não consigo parar d olhar esses vídeos do aidan super teengirl apaixonadinha 
-alguém me ajuda pelamorddeus https://t.co/4yjm1irrkg</t>
-  </si>
-  <si>
-    <t>começar o dia tomando café e ouvindo coffee é tudo de bom</t>
-  </si>
-  <si>
-    <t>⌕ coffee and vanilla (2019)
-      ★★☆☆☆
-－ só assisti pelo dori sakaruda; romance e enredo foi mal elaborado; o ship que não se concretizou em good morning call se encontra aqui; https://t.co/equjx9yva7</t>
-  </si>
-  <si>
-    <t>rt @enderli_juh: se eu soubesse que esse ano não ia ter coffee break, eu tinha comido mais</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 para de rir da minha burrice</t>
-  </si>
-  <si>
-    <t>bom dia quase tarde, como estão? em minha cidade amanheceu um pouco fria então está bom para tomar um cafezinho quentinho ☕❤ https://t.co/qdsuapp5vx</t>
-  </si>
-  <si>
-    <t>@larissafariam7 eu queria um i9 9900k coffee lake e uma rtx 2080 mas uma foto de uma bela raba dm pode me animar!</t>
+    <t>eu, meu iced coffee e a aula acontecendo 
+tá virando rotina</t>
+  </si>
+  <si>
+    <t>porque eu estou tão improdutivo</t>
+  </si>
+  <si>
+    <t>ele finalmente apareceu 🥺🥺 obrigada mbc por esse documentário de coffee prince só assim pro kdw sair da caverna msm https://t.co/zwhxj3uyky</t>
+  </si>
+  <si>
+    <t>@mpotter_malfoy óbvio que claro!!</t>
+  </si>
+  <si>
+    <t>aprendi a fazer um iced coffee incrível e não paro mais de tomar</t>
+  </si>
+  <si>
+    <t>✵ᑭeᗪiᗪo✵: combo pequeno príncipe
+»⋆ꭰꭼ: três pontinhos
+»⋆ꮲꭺꮢꭺ: @kittenscor  
+"pra um meu gravidinho preferido ^w^" https://t.co/hboxyrru5r</t>
+  </si>
+  <si>
+    <t>@kookmincoffe as q eu mais amo eh coffee e umbrella na versao da ember island, tbm winter bear do taehyung mas n tem no spotify</t>
   </si>
   <si>
     <t>cara, comigo eu pego panfeto na rua dos cara que fica entregando pra não deixa eles magoado.
 e não vou banca a hipócrita e dizer que sempre fui assim, pois não depois de tanto errar eu começava a refletir (coisa que todos deviam fazer) sobre minhas ações.</t>
-  </si>
-  <si>
-    <t>rt @carolfigueiredc: eu fui na convenção do pcdob esse domingo e tinha gente la que foi so pq tinha coffee break e era a unica comida q ele…</t>
-  </si>
-  <si>
-    <t>@ivylewisrp ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/mkasjauxlq</t>
-  </si>
-  <si>
-    <t>provei the coffee hoje! achei bom, mas nunca voltaria la! nao compensou pra mim sair da minha casinha pra comprar mais uma vez! valeu a tentativa, mas achei meio agoado e fraco</t>
-  </si>
-  <si>
-    <t>rt @dracomalfoym: melhor casal de hp e vcs não estão prontos pra essa conversa https://t.co/m9ujfnikmo</t>
-  </si>
-  <si>
-    <t>a regra de três trouxe amigos também, mas não precisava</t>
-  </si>
-  <si>
-    <t>rt @sweetcofferp: a sweet coffee está com uma novidade: vem aí nosso primeiro festival musical! ele acontecerá nos dias 25 e 26 de setembro…</t>
-  </si>
-  <si>
-    <t>@coffee___hunter uhum</t>
-  </si>
-  <si>
-    <t>@coffee_lalisa já fiz faz 15 anos hahahahahaha</t>
-  </si>
-  <si>
-    <t>finalmente estou desenhando de volta</t>
-  </si>
-  <si>
-    <t>a outra coisa se vc usa desculpa de algum distúrbio mental como depressão etc pra ser um total escroto desejo meus mais sinceros vai toma no cu. 
-vai procura um psicólogo e se trata ninguém e obrigado aguentar vc sendo um pau no c* com os outros.</t>
-  </si>
-  <si>
-    <t>@coffee_off_ @amandan79313929 vocês namoram ?</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 ata kkkk
-pô, ficou aceitável o nome da mágica kk
-melhor que o meuಠ_ಠ</t>
-  </si>
-  <si>
-    <t>@eyshlav @kayky89219987 poh, apenas um "fodase" é bom as vezes uai</t>
-  </si>
-  <si>
-    <t>@coffee___hunter mentiroso ,fizeram uma lavagem cerebral em vc cara</t>
-  </si>
-  <si>
-    <t>#bomdia
-#minasgerais
-#coffee
-#cafemineiro em santa rita do sapucaí https://t.co/xecjjthhlj</t>
-  </si>
-  <si>
-    <t>rt @pjiminportugal: a cara do jimin quando ouviu que um coffee truck custa 1 bilhão de wons!
-tão fofo ahah 😂
-o camião em questão, foi o q…</t>
-  </si>
-  <si>
-    <t>se tem uma coisa que eu sou apaixonada é café! amo aquela pausa no fim da tarde para um cafezinho, admirando a paisagem 🌊🌞🏡 
-quem mais tb é assim? ama café como eu! diz pra mim 👇🏻☕️
-#frases #danifontenelle #café #coffee #cafeteria #apaixonadaporcafe #apaixonadaporcafé https://t.co/6ktpdgzros</t>
-  </si>
-  <si>
-    <t>@prinbruce como assim?</t>
-  </si>
-  <si>
-    <t>falta quantos anos pra vcs fazerem 18 ???</t>
-  </si>
-  <si>
-    <t>@dizz13y ficou legal</t>
-  </si>
-  <si>
-    <t>quase 4h da manhã e ligada no 220 the coffee não conte cmg pra nada</t>
-  </si>
-  <si>
-    <t>@amandan79313929 @coffee_off_ ah tá</t>
-  </si>
-  <si>
-    <t>porque eu estou tão improdutivo</t>
-  </si>
-  <si>
-    <t>aprendi a fazer um iced coffee incrível e não paro mais de tomar</t>
-  </si>
-  <si>
-    <t>rt @luizabiasutti: essa aula grita por um coffee break</t>
-  </si>
-  <si>
-    <t>oii gente, sou novo nesse mundo de booktt hehe. sou um adolescente nada normal. gosto de ler, assistir série e filmes, viciado em café para manter o ritmo (mas tbm eu amo coffee). afim de novos amgs e interagir bastante, surtar muito com meus personagens e chorar junto tbm 🥺👉🏾👈🏾</t>
-  </si>
-  <si>
-    <t>@b1tchs0n todos tem suas vantagens</t>
-  </si>
-  <si>
-    <t>quem precisa de jornal se tem minha sala</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 foi pego</t>
-  </si>
-  <si>
-    <t>@fernandocluiz virou piada as denúncias da lavajato</t>
-  </si>
-  <si>
-    <t>129º curso de barista de brasília
-• sábado, 26/0920, das 9h às 17h (teoria e prática)
-: https://t.co/7tylbgr7ry 
-info: +55.61.999717349 - antonello@monardo.com.br
-#monardooficial #monardo #café #caffé #coffee #coffeelover #coffeelovers #italia #cappuccino #barista #cursobarista https://t.co/mezx9isrqa</t>
-  </si>
-  <si>
-    <t>@ferro_coffee @farialimaelevat só estou dizendo que a empresa não é totalmente privada como insinuam e o setor tem uma regulamentação muito forte, quanto aos acidentes houve negligência/corrupção nas perícias por parte de agentes públicos.</t>
-  </si>
-  <si>
-    <t>@salimmattarbr @leandroruschel o senhor acha justa a isenção fiscal a suas empresas de locação de veículos 🚗?</t>
-  </si>
-  <si>
-    <t>@bizz_coffee não seria melhor um cara que alem de te dar atenção jogasse com você ?</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 e sim é possível eu ficar mais burro</t>
-  </si>
-  <si>
-    <t>@flamexllsxz mds pq n responde o mlk no msm dia kakakakak tadin</t>
-  </si>
-  <si>
-    <t>bom dia vou fazer vietnamese coffee</t>
-  </si>
-  <si>
-    <t>@tnndark saudades dos congressos academicos da unifesp com coffee break kkkk</t>
-  </si>
-  <si>
-    <t>@vaitamara tenta fazer um dalgona coffee, é bem de boinas e combina com esse calor infernal</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 escolhe o certo por favor</t>
-  </si>
-  <si>
-    <t>@coffee___hunter calado babaca do empanado</t>
-  </si>
-  <si>
-    <t>rt @johnctsep: se o nct 2020 for verdade eu só quero um a cup of coffee parte 3 senhor será que é pedir demais</t>
-  </si>
-  <si>
-    <t>@tallipes @tododiagostosa @nanda_disus o mlk é porra de um rato</t>
-  </si>
-  <si>
-    <t>@lana_juno só por duvida vcs poderiam amanhã? ou muito em cima da hora</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 ótimo, nem queria você mesmo no meu time, hmph!</t>
-  </si>
-  <si>
-    <t>ow eu mandei uma receita de iced coffee delícia p joão, se algm quiser saber me chama hehe @joaolucasmnk</t>
-  </si>
-  <si>
-    <t>⯯ redução preço / price reduced ⯯
-para venda restaurante/café vila nova de gaia
-https://t.co/dhn9qtcgpx
-sale rest./coffee shop vila nova de gaia
-https://t.co/jejsy9e0um https://t.co/ljhxcphwdf</t>
-  </si>
-  <si>
-    <t>@fernandoulrich @salimmattarbr @leandroruschel pergunte pro salim o que ele acha do benefício fiscal para as empresas dele, uma vez que compra carro com isenção de impostos, aluga e depois vende mais caro, como se tivesse recolhido os impostos normalmente. isso é liberalismo?</t>
-  </si>
-  <si>
-    <t>@coffee_lalisa saudades 💔</t>
-  </si>
-  <si>
-    <t>rt @thebruninho_: petição pro kalil colocar bh em lockdown e o thiago neves não conseguir entrar na cidade</t>
-  </si>
-  <si>
-    <t>todo mundo escondendo o sorriso do rosto pela aula vaga</t>
-  </si>
-  <si>
-    <t>@joh4chan @finizituslol e só n é mais gay que eu falando a coffee, enfim, todo mundo é gay</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 corta pra fazer empanado</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 agora não tem pa onde escapá</t>
-  </si>
-  <si>
-    <t>quanto mais eu escuto blur mais eu me convenço que a única música boa deles é coffee and tv msm</t>
-  </si>
-  <si>
-    <t>queria ter essa capacidade de fazer o mal pras pessoas e não ter remorso igual várias pessoas tem. eu fico vendo situações tipo mano como uma pessoa consegue fazer isso com outra. tudo bem que tipo tem pessoas que odiamos/desgostando por diversos motivos.</t>
-  </si>
-  <si>
-    <t>rt @yorunonight: ＜saber＞ #絵フブキ #holofate https://t.co/lvjg0qqmda</t>
-  </si>
-  <si>
-    <t>@coffee_off_ pq ele me ignorou por meses 😔</t>
-  </si>
-  <si>
-    <t>@coffee___hunter kkkkkkkk e eu sou um slime</t>
-  </si>
-  <si>
-    <t>@mar_chikita oleee aaa</t>
-  </si>
-  <si>
-    <t>rt @doominicbronagh: então amg sinto em te informar que passar pano é limpar e se você associa isso a mulheres negras eu tenho que te conta…</t>
-  </si>
-  <si>
-    <t>@gacastelo @gifsdeanimal quando lançar o 5g troco o meu 8</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 bom saber, safado</t>
-  </si>
-  <si>
-    <t>@hotcakeschikit a pxa</t>
-  </si>
-  <si>
-    <t>@coffee___hunter nem cara croquete</t>
-  </si>
-  <si>
-    <t>café nosso, de cada dia!! 
-#cafe #bomdia #goodmorning #coffee https://t.co/6t5ivbmlhx</t>
-  </si>
-  <si>
-    <t>@isabela_santos_ tá quanto o coffee paradaiso?</t>
-  </si>
-  <si>
-    <t>@ootakusadboy putz</t>
-  </si>
-  <si>
-    <t>@kayky89219987 @eyshlav claro, e eu sou o batman</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 mas os slimes são fofinhos não tem como fugir dessa</t>
-  </si>
-  <si>
-    <t>@eyshlav @neman_coffee mas é uma vadia mesmo em</t>
-  </si>
-  <si>
-    <t>rt @polado_2: revoltado eu estava quando o galo anunciou o vagner mancini. no momento eu estou totalmente atordoado da cabeça, a ponto de c…</t>
-  </si>
-  <si>
-    <t>momentos que senti vergonha de mim.
-tinha uma mina q sla eu era bem insegura com ela uma vez até xinguei ela, e tinha um certo ciúmes dela sabe, aí descobri que ela ajudou uma pessoa q iria me influenciar positivamente (mas no final acabou uma bosta).</t>
-  </si>
-  <si>
-    <t>rt @pjiminportugal: 𝐿𝑜𝑣𝑒𝑙𝑦 𝐿𝑜𝑣𝑒𝑙𝑦 𝐽𝑖𝑚𝑖𝑛 𝐷𝑎𝑦 💛
-cup sleeve event no porto no café mustache coffee house!
-no fim de semana de 10-11 de outubr…</t>
-  </si>
-  <si>
-    <t>@fernandaaraujoz como o xandao</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 nem tanto</t>
-  </si>
-  <si>
-    <t>ele finalmente apareceu 🥺🥺 obrigada mbc por esse documentário de coffee prince só assim pro kdw sair da caverna msm https://t.co/zwhxj3uyky</t>
-  </si>
-  <si>
-    <t>@dekdsimp igñskdñalksñsjsk💕❣️💖💝💖💗💓💖💝💓💗💖💗💖💝💓</t>
-  </si>
-  <si>
-    <t>passar anos lendo coffee shop aus até destilar a sua essência e escrever uma monografia intitulada o herói de mil lattes</t>
-  </si>
-  <si>
-    <t>abertas as inscrições para o coffee of the year brasil 2020 (#coy). concurso reúne os melhores ☕️ cafés do país e elege os grandes destaques do ano. 
-os 🥇🥈🥉🏆campeões serão conhecidos na #sic digital, no dia 20 de novembro. 
-quer saber mais? acesse: https://t.co/w1bjj5mnpl https://t.co/wjhkuwnzgn</t>
-  </si>
-  <si>
-    <t>pd ser q eu de o fds pra td, do block vazo n falo mais nda</t>
-  </si>
-  <si>
-    <t>@arcyzawys @the__coffee aqui fica assim↑</t>
-  </si>
-  <si>
-    <t>eu nem tenho como explicar como eu amo coffee prince e como foi a época de exibição, nao tem um drama de hj em dia que eu possa comparar. só sei que só nesses segundos de vídeo eu já chorei, imagino assistindo tudo ♥️♥️♥️ https://t.co/wnjyus7muq</t>
-  </si>
-  <si>
-    <t>tomando um cafezin tão gostoso
-esse tá o coffee</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 eu sou burro por natureza, o empanado me ajuda a não ficar mais burro
-talvez eu esteja sendo contaminado pela merda do croquete</t>
-  </si>
-  <si>
-    <t>@kayky89219987 @neman_coffee menino primeiro vc nem me conhece pra tá me chamando de vadia 🙄 
-se alguém te falou alguma merda e vc n me conhece n venha me julgando sem me conhecer 🙄</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 fica quieto, você não consegue ver a verdade pois o croquete te cega</t>
-  </si>
-  <si>
-    <t>@coffee_lalisa daqui 7 anos</t>
-  </si>
-  <si>
-    <t>rt @vicbrcelos: caramba hoje vi a tml valorizando o cazares foi a primeira vez em 2020 que meu coração de cazarete ficou feliz nesse lugar</t>
-  </si>
-  <si>
-    <t>@uttsbaek e se o ten poder participar será que teremos a cup of coffee parte 3???</t>
-  </si>
-  <si>
-    <t>@ricardo_smota @farialimaelevat não está alocando mal. está ficando com os melhores. se a iniciativa privada fosse boa, pq prestar estudar e prestar concurso?</t>
-  </si>
-  <si>
-    <t>o cast de coffee prince reunido meu deus ninguém me toca https://t.co/jluiald2gu</t>
-  </si>
-  <si>
-    <t>@coffee___hunter toma no seu cu vadia , croquete</t>
-  </si>
-  <si>
-    <t>duas paixões... 
-duas coisas que me anestesia ✨❤️
-.
-.
-.
-.
-#fotografia #foto #fotostumblr #feedorganizado #feed #feedfeed #feedmusic #violão #coffee #cafe #café #feelfreefeed #fé #fire #god #godisgood https://t.co/akbpbsdwvf</t>
-  </si>
-  <si>
-    <t>eu aceito o thiago neves se ele vir sem receber salário e pagando 3 mil reais pra cada torcedor do atlético por mês e nunca vestir a camisa do clube</t>
-  </si>
-  <si>
-    <t>@eyshlav @neman_coffee mau ela sabe oq a gente fez com aquelas 2 amigas dela kkj</t>
-  </si>
-  <si>
-    <t>finalmente achei que tinha me livrado da regra de três, mas ela voltou</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 por isso quase não leio mangá</t>
-  </si>
-  <si>
-    <t>jae do you want coffee? tea? or me? charot hshshshshshaha
-@jae_day6 
-#fromfriendsjaeandjed</t>
-  </si>
-  <si>
-    <t>@iukethief @disneygrlove - comigo</t>
-  </si>
-  <si>
-    <t>com o calor no talo, vou poder voltar a saborear um favorito que se chama iced coffee.</t>
-  </si>
-  <si>
-    <t>rt @lragazzi: a falsa contratação do thiago neves foi o evento mais próximo da inconfidência mineira que tivemos desde 1793</t>
   </si>
   <si>
     <t>até o garçon gato/gostoso vai aparecer, affeeeeee
@@ -852,608 +1727,14 @@
 (eu não sabia que tinha 13 anos!) https://t.co/jgkgwpu0mm</t>
   </si>
   <si>
-    <t>@coffee___hunter tá me que arco ?</t>
-  </si>
-  <si>
-    <t>@gukk1994line mano,todas as músicas são boas,mas tem algumas que eu não curto. 13450,coffee,respect....</t>
-  </si>
-  <si>
-    <t>@andzrson coffee day sim!!! não da pra esquecer</t>
-  </si>
-  <si>
-    <t>@ferro_coffee @brunode22555578 @farialimaelevat "ideologicamente falsos"?
-que droga é essa que você fumou? laudo é técnico e, ou diz o que tem ou mente. não tem "ideologia" nenhuma. não existe laudo materialmente verdadeiro e falso. ou é falso ou não é. é era materialmente falso.</t>
-  </si>
-  <si>
-    <t>enfim eu fico lembrando disso pq fico com certo peso, mesmo que ela não saiba que eu fiquei com um certo ódio dela antes sla eu fico me sentindo mal pq tive uma ideia da pessoa antes de se quer saber da história, espero que eu possa muda isso (pra para de passa vergonha)</t>
-  </si>
-  <si>
-    <t>@coffee___hunter então devido a altura meus bolsos sempre prendem na maçaneta, meus uniformes estão todos rasgados nos bolsos kkkm</t>
-  </si>
-  <si>
-    <t>se de alguem der mais q 50% eu pago uma cerveja
-compare music tastes with me ✨! https://t.co/8lp8sshqjo #musictaste</t>
-  </si>
-  <si>
-    <t>sobrevivendo hj só com o pensamento que vou comer aquele donuts divino do 89° coffee com a taw</t>
-  </si>
-  <si>
-    <t>rt @iukethief: cara tem tantas pessoas pra você shippar com o leo valdez: 
-- piper
-- hazel
-- rachel
-- reyna 
-- nico
-- jason
-- jason e piper…</t>
-  </si>
-  <si>
-    <t>rt @hestbrave: pelo amor de deus parem de compartilhar fotos da mari ferrer no pior momento da vida dela e comecem a compartilhar a foto e…</t>
-  </si>
-  <si>
-    <t>rt @babizawn: e a padaria que abriu aqui do lado da ufu que é padaria e distribuidora de bebidas e chama coffee breja</t>
-  </si>
-  <si>
-    <t>só queria um café...
- #coffee #meh https://t.co/xsoikxvnp8</t>
-  </si>
-  <si>
-    <t>@coffee_lalisa eu ja tenho...</t>
-  </si>
-  <si>
-    <t>como sempre o client da @riotgamesbrasil se demonstra cada dia que passa que e um excelente client novamente com os bugs do chat.
-ta de parabéns ae a equipe.</t>
-  </si>
-  <si>
-    <t>segundo dia no uruguai, fui em um coffee break de maconha, troquei altas ideias com o "cebola", e ganhei umas bud, 💪🏻💪🏻💪🏻.</t>
-  </si>
-  <si>
-    <t>@coffee___hunter team croquete enfia esse empanado no cu e gira</t>
-  </si>
-  <si>
-    <t>@coffee___hunter avlis
-eh...gostei até</t>
-  </si>
-  <si>
-    <t>📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
-e para comemorar o dia do cliente ...
-mimos, brindes, coffee break, coquetel, novidades... 
-✖️ 📲 shayenne-21 98426-5586 📲thayná - 21 97584-3537 📲 antônio-21 99048-7000 📲 laurin - 21 96642-8895 https://t.co/y1ngi7kqqt</t>
-  </si>
-  <si>
-    <t>black cave coffee ✅
-academia ✅
-correr com jake ✅
-banho gelado ✅
-meditação ✅
-500ml de água ✅
-⏱11:00 
-o que você fez hoje?</t>
-  </si>
-  <si>
-    <t>@dekdsimp a mimir, a mimir</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 empanado
-croquete é ruim</t>
-  </si>
-  <si>
-    <t>@coffee_lalisa obrigada ❤️</t>
-  </si>
-  <si>
-    <t>@ahneverland ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/cv1dy75dim</t>
-  </si>
-  <si>
-    <t>@brunode22555578 @farialimaelevat quem fez os laudos foi uma empresa alemã privada.</t>
-  </si>
-  <si>
-    <t>rt @brinydelaet: espalhando um pouquinho de amor na sua timeline! ganhei minha semana com esse vídeozinho 🖤</t>
-  </si>
-  <si>
-    <t>@coffee___hunter me add no discord q eu posso tá lá</t>
-  </si>
-  <si>
-    <t>rt @barbara_matsuda: o capitalismo vende um café com gelo chamando de “iced coffee”</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 eu sei, mas to no ep 198 então to feliz</t>
-  </si>
-  <si>
-    <t>@moneymalvadao @sharkhammer99 eu tentei e muito, mas ele só quer saber daquele caminho do croquete, ele não percebe que isso só traz mal</t>
-  </si>
-  <si>
-    <t>@walking_coffee @aidanrgallagher kkkkkkkkkkk reflexões</t>
-  </si>
-  <si>
-    <t>@joaoquirino1 por você eu até aprendo beber 
-coffee sem sugar
-boa noite meu príncipe ❤️🙌☕🥐🥐☕</t>
-  </si>
-  <si>
-    <t>eu amo coffee shop au ou florist au como qualquer outra garota básica, mas chega né? kd as fanfic cowboy au, um gatlinburg au, hóquei no gelo au, kd as fanfic sobre corrida de fórmula um? reality show de moda? kd? kd a criatividade?</t>
-  </si>
-  <si>
-    <t>@radaronline virou piada isso aí</t>
-  </si>
-  <si>
-    <t>"ah vai ter coffee break"
-vai a puta que te pariu</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 eu falei que é o meu</t>
-  </si>
-  <si>
-    <t>@gggeesdorf @ilovealcool mornings are for coffee and contemplation
-hora de sair da cama é depois das 11h30</t>
-  </si>
-  <si>
-    <t>tb a cuando tomábamos iced coffee 24/7 @andreaclpadilla</t>
-  </si>
-  <si>
-    <t>café do brasil 
-https://t.co/npan73marm</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 toma no seu cu, três vezes vadia😎
-aqui é team empanado</t>
-  </si>
-  <si>
-    <t>@polado_2 @rah_coffee e requintes de crueldade</t>
-  </si>
-  <si>
-    <t>@coffee___hunter não acredito, tu curte gears mano!!</t>
-  </si>
-  <si>
-    <t>coffee ++ traz os melhores cafés super especiais do brasil para o mercado interno: loja… https://t.co/ojidnrhvp1</t>
-  </si>
-  <si>
-    <t>@apple_juice53 só por conta desse documentário q vai ter, agr eu quero assistir coffee prince kkkkkkk</t>
-  </si>
-  <si>
-    <t>@galoinfo2 particularmente acho importante mostrar que sampaoli e mattos não são donos do clube</t>
-  </si>
-  <si>
-    <t>@kayky89219987 @eyshlav unico kid aq sou eu porra</t>
-  </si>
-  <si>
-    <t>@coffee___hunter gosto dos dois mas sou team xbox graças ao bom e velho gears of war</t>
-  </si>
-  <si>
-    <t>rt @kamilabrunelle: queria o seq sendo presencial com aquele coffee break, vários "docin" de leite</t>
-  </si>
-  <si>
-    <t>agr é asteirode pelo amooor https://t.co/xbhsljsfcq</t>
-  </si>
-  <si>
-    <t>@moneymalvadao @coffee___hunter calado jogador de wow</t>
-  </si>
-  <si>
-    <t>@bizz_coffee abandonada ou jogando dark souls?</t>
-  </si>
-  <si>
-    <t>rt @urghgrrrargh: também sinto isso por você</t>
-  </si>
-  <si>
-    <t>rt @ceedric10: cancelar sócio torcedor por achar que o time tá fazendo uma cagada histórica é um protesto tão válido como qualquer outro. s…</t>
-  </si>
-  <si>
-    <t>rt @rngdalton: ao poucos eu conquistei  oque sempre sonhei. ;-; https://t.co/hamor50ddg</t>
-  </si>
-  <si>
-    <t>89 mil reais em arroz https://t.co/lamabxccep</t>
-  </si>
-  <si>
-    <t>@velhosabujo @brunode22555578 @farialimaelevat os laudos eram ideologicamente falsos, não materialmente falsos. muito difícil descobrir a falsidade ideológica, pois são assinados por engenheiros (ir)responsáveis pelo que foi declarado.</t>
-  </si>
-  <si>
-    <t>@coffee___hunter toma no seu cu estão</t>
-  </si>
-  <si>
-    <t>@jrzexnik ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/c5ectzcwqd</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 nem, empanado melhor</t>
-  </si>
-  <si>
-    <t>@annemsudre vou ter que me esforçar muito pra ter a melhor mamada 😔✊</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>@ethxnkm @coffee_beller @_nooahjs @nelson_c_nott @madison_c_nott @_black_justin_ que bom 🥰</t>
-  </si>
-  <si>
-    <t>ah não, coffee mexe comigo</t>
-  </si>
-  <si>
-    <t>@cactussvante @fleursbear @offcialseokjiin @kwonjwm @detailsrosie @ismytoxicc @jhopecolorr @jenniemeretriz @colorsdery @guinhojk @lovelyminsuga93 @maffuyu_ @ssulkitw0 @taehyskyy @jnkpoesie obggg ami</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 mentiroso nada, só estou tentando te mostrar que esse caminho de croquetes não é bom... venha... venha beast... para o caminho dos empanados</t>
-  </si>
-  <si>
-    <t>opa odeio acabar o estágio e ir logo pra casa, e hoje não há coffee com nng 🥺</t>
-  </si>
-  <si>
-    <t>@gijacopetti que pena né</t>
-  </si>
-  <si>
-    <t>@coffee___hunter e a realidade,tem muito dessa merda na minha tml</t>
-  </si>
-  <si>
-    <t>energia ruim nois tem de monte 🥶</t>
-  </si>
-  <si>
-    <t>@vinicius_coffee siiim todo mundo disfarçando</t>
-  </si>
-  <si>
-    <t>@adriandduwu @dekdsimp ay no, se va a emputar más jadjsksjaf</t>
-  </si>
-  <si>
-    <t>rt @squallzera: dale, sexta 18h vamo ver quem é o maior mentiroso nessa bagaça</t>
-  </si>
-  <si>
-    <t>quero ver!!! a reunião do elenco de coffee prince ♥
-parece que filmaram separados né? mas tá bom, não vou pedir demais. https://t.co/lzt7jrxwtj</t>
-  </si>
-  <si>
-    <t>@dizz13y ficou muito legal, um dos melhores talvez</t>
-  </si>
-  <si>
-    <t>@coffee_lalisa alguns meses 🤩</t>
-  </si>
-  <si>
-    <t>📽 | o documentário sobre 'coffee prince', da mbc, está previsto para ir ao ar em 24/09 e 01/10, e reunirá o elenco principal do drama. vocês estão prontos para ver #gongyoo, #yooneunhye, #leesunkyun, #chaejungan, #kimjaewook e #kimdongwook juntos novamente, 13 anos depois? https://t.co/cut6q9blcw</t>
-  </si>
-  <si>
-    <t>se o nct 2020 for verdade eu só quero um a cup of coffee parte 3 senhor será que é pedir demais</t>
-  </si>
-  <si>
-    <t>@coffee___hunter burro pra caralho ,deve ser o tanto de empanado que tu anda comendo</t>
-  </si>
-  <si>
-    <t>@neman_coffee @kayky89219987 ah desculpa ent 
-é pq eu tenho q aceitar calada oq ele falou né</t>
-  </si>
-  <si>
-    <t>@coffee___hunter calado otário e a porra do seu empanado que te deixa mais burro</t>
-  </si>
-  <si>
-    <t>@coffee_ahh felicidades🥺💕</t>
-  </si>
-  <si>
-    <t>entendam, o sérgio só se posiciona pra fazer marketing pra si próprio. sempre deixa 100% das decisões pro diretor de futebol. deu total liberdade pra alexandre tadeu, marques(primeira vez na vida nesse cargo), rui costa e agr o mattos, ele nunca deve ter se oposto a nada de campo</t>
-  </si>
-  <si>
-    <t>ps. ao som de black coffee pra ficar melhor</t>
-  </si>
-  <si>
-    <t>coffee prince é minha vida</t>
-  </si>
-  <si>
-    <t>@lana_juno siim ótima ideia</t>
-  </si>
-  <si>
-    <t>@_btsarmmy_ siim aaaa kkkkkk 
-esqueci até de adicionar coffee e ma city</t>
-  </si>
-  <si>
-    <t>rt @felipetetz: ‘bora na cachoeira relaxar... https://t.co/qbj8he8ll4</t>
-  </si>
-  <si>
-    <t>@wfvoting @bts_twt a minha playlist tem coffee, spring day, moving on, já tô até chorando😭😭😭😭😭 https://t.co/71klm9btf4</t>
-  </si>
-  <si>
-    <t>essa aula grita por um coffee break</t>
-  </si>
-  <si>
-    <t>@o_antagonista é um animal neoliberal fdp</t>
-  </si>
-  <si>
-    <t>fala assim cmg n q hj eu to na brisa</t>
-  </si>
-  <si>
-    <t>rt @tnndark: saudades de treinamento presencial com coffee break</t>
-  </si>
-  <si>
-    <t>@aqueledonato batata fenomenal eu imploro vai ouvir o podcast coffee break french eu aprendo muito</t>
-  </si>
-  <si>
-    <t>eu, meu iced coffee e a aula acontecendo 
-tá virando rotina</t>
-  </si>
-  <si>
-    <t>@coffee___hunter eu rio quanto eu quiser em nome do croquete</t>
-  </si>
-  <si>
-    <t>@kingfalcom na mesma situação que ela</t>
-  </si>
-  <si>
-    <t>rt @herovante: o fato de você saber exatamente quem é que ele ta encarando... muda. tudo.  
- https://t.co/ct75horik1</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 muita diferença mesmo</t>
-  </si>
-  <si>
-    <t>respondendo perguntas e curiosidades sobre cada um e depois aproveitamos para bater um papo mais próximo e descontraído acompanhado de coffee break. esse evento está sendo pensado para ser itinerante, então quem sabe seu instituto não receberá um encontecs no futuro? +</t>
-  </si>
-  <si>
-    <t>não é possível que alguém ainda consiga ouvir e gostar da música death bed (coffee for your head)</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 realmente</t>
-  </si>
-  <si>
-    <t>@coffee_strange @spacebooksbr mano kkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>meu maior medo era me torna uma pessoa abusiva e tóxica, depois de ter vivido com isso em relacionamentos e amizades eu ficava com medo de me torna igual a eles sabe. 
-e com o tempo "desenvolvi" essa voz da consciência, e tipo literalmente qualquer coisa ela já fala pra mim.</t>
-  </si>
-  <si>
-    <t>rt @sgoldenstein: contribuição que dei para matéria do valor sobre a estratégia de financiamento do tesouro. https://t.co/i5fnodq5ao</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 em nome do empano, eu esmagou a tua cara e ainda faça outra coisa que não consegui pensar, yeah</t>
-  </si>
-  <si>
-    <t>rt @taegitulips: - coffee 
-as vezes preciso imaginar que um dia teria meu clichê adolescente e a música em si me acalma🧡 https://t.co/ojuc…</t>
-  </si>
-  <si>
-    <t>rt @flamexllsxz: se ela me chama de vida eu vou mudar de vida 🎉</t>
-  </si>
-  <si>
-    <t>sdds alegol https://t.co/bniz9xxm09</t>
-  </si>
-  <si>
-    <t>rt @ethxnkm: tudo!</t>
-  </si>
-  <si>
-    <t>rt @apotter_malfoy: 😱😱 
-🎶 sua mãe sabe mais
-ouça o que eu digo
-é um mundo assustador
-sua mãe sabe mais
-cheio de perigos, acredite por favo…</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 acho que a maioria tem esse sentimento, eu tbm</t>
-  </si>
-  <si>
-    <t>eu encontrei a minha pessoa certa. você me faz tão feliz, não quero que isso acabe nunca. obrigada por me cuidar tanto. te amo ❤️
-"you're the coffee that i need in the morning"
-"the life is a movie, you're the best part" https://t.co/8tn7snwubs</t>
-  </si>
-  <si>
-    <t>quando eu estou muito nervosa com algo eu gosto de escutar coffee e just one day, parece que mesmo que por pouco tempo eu simplismente "esqueço" meus problemas e apenas curto o momento em que estou escutando essas músicas</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 pô mas rir em nome do croquete só te deixa mais fraco de tão ruim que é</t>
-  </si>
-  <si>
-    <t>comecei a seguir o insta da the coffee só pra passar vontade todo dia</t>
-  </si>
-  <si>
-    <t>gente, to apaixonada pelo @aidanrgallagher 
-será q é pedofilia? kkkkk</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 o teu?</t>
-  </si>
-  <si>
-    <t>aqui está uma música para você… death bed (coffee for your head) de powfu
-https://t.co/czr7oe2xci</t>
-  </si>
-  <si>
-    <t>@amandan79313929 pq vc n me atende moh</t>
-  </si>
-  <si>
-    <t>@_rafaa98 baza coffee? mete anúncio no twitter ver quem quer tomar café connosco</t>
-  </si>
-  <si>
-    <t>killua falsificado está passando pela sua timeline, aproveite https://t.co/4yycgdecyw</t>
-  </si>
-  <si>
-    <t>rt @mkteirasesports: 🐝💖 chegamosss 💖🐝
-é com muita alegria que damos início ao marketeiras esports!
-viemos para auxiliar você que é stream…</t>
-  </si>
-  <si>
-    <t>@00poemnj ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/z6c7gjl2sp</t>
-  </si>
-  <si>
-    <t>@the__coffee roi, você é stan de tua e ouat, como que a gente nunca se falou antes???</t>
-  </si>
-  <si>
-    <t>@bizz_coffee eu entendi mas so falei que seria melhor outra coisa e nao somente aquilo ali xd</t>
-  </si>
-  <si>
-    <t>rt @obviusmultimar1: 📣 lançamento verão 21 📣☀️🌴 ➖ amanhã terça-feira, 15/09/2020 - 🙀🥰
-e para comemorar o dia do cliente ...
-mimos, brindes,…</t>
-  </si>
-  <si>
-    <t>rt @itscarolbtw: coffee dates são tão bons :)))</t>
-  </si>
-  <si>
-    <t>@sugary_coffee @tododiagostosa @nanda_disus elogia minha mulher né</t>
-  </si>
-  <si>
-    <t>mas tipo já vi desconhecido fazendo mal pra uma pessoa ou até "amigo" e a pessoa faz várias vezes, tipo ela não se arrepende ela não tem aquela voz da razão/sensk que era pra todos terem.</t>
-  </si>
-  <si>
-    <t>@shitposterlxz @coffee_off_ não kakak</t>
-  </si>
-  <si>
-    <t>rt @leomessidepre: messi no seu gol 500 // torcedores do barça no gol 501 do messi 🐐❤️ https://t.co/diawclx34k</t>
-  </si>
-  <si>
-    <t>e não vou dizer que não tenho nem uma atitude tóxica, pq eu tenho, todo mundo tem, só que eu tento muda elas evitar ou corrigir caso eu tenha elas sabe.
-aí eu vejo gente que sla destrata namorada, destrata amigo, destrata família eu fico (???)</t>
-  </si>
-  <si>
-    <t>@coffee___hunter henrique kkkkkkkkk , leirbag esse é o meu</t>
-  </si>
-  <si>
-    <t>rt @vantegoes: quando o jungkook foi cantar 'coffee', e engasgo ouvindo o namjoon dizer 'baby', com a voz grossa kkkkkkkkkkkkkkkkk
-jungkoo…</t>
-  </si>
-  <si>
-    <t>@salimmattarbr @leandroruschel por que os liberais se socorrem ao estado sempre que há uma crise? pq pedem isenções fiscais e financiamentos a juro zero ?</t>
-  </si>
-  <si>
-    <t>fico igual pinto no lixo quando me chamam p um coffee break 
-tem coisa melhor não</t>
+    <t>a sessão clínica da infectologia na hora do coffee-break 
+‘meu paciente da úlcera de buruli...’ https://t.co/mlpqfit9sx</t>
   </si>
   <si>
     <t>o que quiero salir de latam usmdjsjd</t>
   </si>
   <si>
-    <t>@coffee_lalisa nenhum infelizmente...</t>
-  </si>
-  <si>
-    <t>@fullmetalgonza @z0elina @hash_coffee de nada</t>
-  </si>
-  <si>
-    <t>rt @felipesimonetti: qual a surpresa quando vejo a escalação para @atletico x @redbullbraga e várias pessoas me marcando tentando entender…</t>
-  </si>
-  <si>
-    <t>@coffee_ahh felicidades 👏❤</t>
-  </si>
-  <si>
-    <t>@coffee___hunter meu nome é pedro henrique</t>
-  </si>
-  <si>
-    <t>aquele café gelado no capricho😀
-#cafe #coffee #icecoffee #coffeelovers #cafezeiros #espresso #cafegelado #sorvete #sorvetetortaalema #sheridans #licor  #segundafeira #cafedanoite #chantilly https://t.co/ezg4xxnydu</t>
-  </si>
-  <si>
-    <t>coffee break - casamento terminou com noiva ao soco com rival - https://t.co/zvb3uhe5jf https://t.co/pnbf8yye7e</t>
-  </si>
-  <si>
-    <t>@denny__boo gears é maravilhoso</t>
-  </si>
-  <si>
-    <t>@coffee_off_ pq mô?</t>
-  </si>
-  <si>
-    <t>rt @coelaaranjinha: ela tá chorando por isso? imagina se mora com minha mãe ia chorar todos os dias.</t>
-  </si>
-  <si>
-    <t>rt @essesusersai: vou falar nada pois estão de folga, mas imagina se certo jogador estivesse aqui no meio ein</t>
-  </si>
-  <si>
-    <t>acho que uma das minhas metas pro ano que vem vai ser começar a investir em cosplays. 
-serio e algo que eu sempre quis "trabalha" um dos motivos de eu querer tanto aprende a costurar.</t>
-  </si>
-  <si>
-    <t>ai quero assistir coffee prince agora.... https://t.co/w2mguxcsyd</t>
-  </si>
-  <si>
-    <t>@spacebooksbr @coffee_strange aguenta mais um</t>
-  </si>
-  <si>
-    <t>@coffee___hunter tbm não queria vc no meu</t>
-  </si>
-  <si>
-    <t>@coffee___hunter o meu</t>
-  </si>
-  <si>
-    <t>coffee de música de fundo 😭 https://t.co/prh1khz6xs</t>
-  </si>
-  <si>
-    <t>a noite esfriou, um chocolate quente seria bom agora. https://t.co/qvuna40u1u</t>
-  </si>
-  <si>
-    <t>todo um povo iludidasso kakakak
-apoia os bagulho local seus pau no cu, bora pro coffee house. https://t.co/0zzjdbrkkt</t>
-  </si>
-  <si>
-    <t>finalmente uma manhã mais fresca, não aguento todo esse calor.</t>
-  </si>
-  <si>
-    <t>@kookmincoffe as q eu mais amo eh coffee e umbrella na versao da ember island, tbm winter bear do taehyung mas n tem no spotify</t>
-  </si>
-  <si>
-    <t>rt @theweirdodork: it's a spooky cliche//supercorp au
-kara é melhor amiga de lena, dona de um dos mais famosos coffee's shop de national c…</t>
-  </si>
-  <si>
-    <t>@coffee___hunter não venha pro caminho certo hunter</t>
-  </si>
-  <si>
-    <t>eu falo que a situação do cazares é bizarra no galo. ele não serve pelo extra-campo, mas um agressor de mulher e o protagonista de um time rebaixado pelo extra-campo serve.</t>
-  </si>
-  <si>
-    <t>@taeseokloveu @coffee_lalisa parabéns 🎉🎈</t>
-  </si>
-  <si>
-    <t>rt @kimjaewookbr: 📽 | o documentário sobre 'coffee prince', da mbc, está previsto para ir ao ar em 24/09 e 01/10, e reunirá o elenco princi…</t>
-  </si>
-  <si>
-    <t>@coffee_ahh confirmo</t>
-  </si>
-  <si>
-    <t>@deliiahbard não sei amg kkkkk
-o twitter é bem grande neh https://t.co/s2nhnleakr</t>
-  </si>
-  <si>
-    <t>foda de passar o dia todo travadão de ansiedade é que quando passa, eu quero fazer uma grande mudança na minha vida achando que vai resolver</t>
-  </si>
-  <si>
-    <t>rt @coffee_off_: hj eu to bem malzin</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 o meu</t>
-  </si>
-  <si>
-    <t>rt @miloleh: °•soft litte coffee•° au bf &amp;amp; yuri on ice
-onde ash descobre que viktor, seu gerente do café com letras, contratou novos funci…</t>
-  </si>
-  <si>
-    <t>@coffee___hunter tá perdendo muito</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 deixa meu sobrenome
-teu sobrenome é gabriel?!</t>
-  </si>
-  <si>
-    <t>@pincesodosenpai ԋappiness (⌒▽⌒)☆ hello! we are luvies! muito obrigado por seguir o kingdom coffee. aqui está um pequeno mimo de boas vindas! espero que você tenha um ótimo(a) dia/noite e não esqueça de se hidratar! 🍇 ᠉ https://t.co/6ylzuriqfs</t>
-  </si>
-  <si>
-    <t>@sharkhammer99 vem tu desgraça, eu que não vou para essa lado obscuro</t>
-  </si>
-  <si>
-    <t>@tensoblog da demora ao passar o café? alias, ja passamos um little coffee hoje?</t>
-  </si>
-  <si>
-    <t>@coffee_lalisa -7 anos kkkkk</t>
-  </si>
-  <si>
-    <t>@velhosabujo @brunode22555578 @farialimaelevat ela conferiu, mas os dados dos laudos eram falsos. sabe como é na iniciativa privada. ...leva quem entrega o serviço ao gosto do freguês. se não entregar, contrata outro.</t>
-  </si>
-  <si>
-    <t>@bizz_coffee já se cadastrou, miga? ❤❤</t>
-  </si>
-  <si>
-    <t>minhanossa eu só percebi agora q o namorado da maju ta tocando no vídeo de "coffee" da tori kelly</t>
-  </si>
-  <si>
-    <t>aqui em casa me chamam de estressadinha
-mas eles nunca viram meu irmão bravo com algo
-ele quebra esse algo
-sacas?
-hoje ele jogou uma pedra no carro de um fdp que fez uma merda fodida há uns 2 anos atrás pra ex dele</t>
-  </si>
-  <si>
-    <t>aqui está uma música para você… coffee de bts
-https://t.co/sd8dkeacfn</t>
-  </si>
-  <si>
-    <t>@kayky89219987 @eyshlav você tá sendo mais podre ainda mano.</t>
+    <t>@neman_coffee @eyshlav tá mais pra ser o tigrão daquela dlç</t>
   </si>
 </sst>
 </file>
@@ -2822,499 +3103,504 @@
         <v>200</v>
       </c>
     </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A121"/>
+  <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3332,607 +3618,997 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
